--- a/CS5296-project-testCase.xlsx
+++ b/CS5296-project-testCase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janice\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BC2C7D-E950-4448-8ADE-D25E891D4F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251B99E0-B424-4446-942F-7D4AE2F87175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22140" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metric" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="FaultTo&amp;Scalability" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Test Cases'!$A$1:$W$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Test Cases'!$A$1:$X$1</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="165">
   <si>
     <t>Metric</t>
   </si>
@@ -586,6 +586,14 @@
  (* Use function of "MultiExec" in MobaXterm to shutdown servers simultaneously)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>GitHub Sample Link</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Link</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -712,9 +720,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -751,6 +756,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -14574,22 +14582,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:colOff>83821</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>53341</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2110740</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>110105</xdr:rowOff>
+      <xdr:colOff>2141221</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>68839</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="圖片 2">
+        <xdr:cNvPr id="7" name="圖片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8430ED8-A757-4872-BE74-5D7E9DDBA766}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08309442-4C4C-48DB-AA83-2639A36B7D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14605,8 +14613,228 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2758440" y="784860"/>
-          <a:ext cx="2011680" cy="1039745"/>
+          <a:off x="2743201" y="8054341"/>
+          <a:ext cx="2057400" cy="2301498"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2095292</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="圖片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F3A656C-AFA6-4598-94E4-686EF2B3EAFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="4800600"/>
+          <a:ext cx="2049572" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2156460</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>118572</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="圖片 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB4CEE15-B6EB-4FAA-9AF6-44D7A582F357}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2697480" y="830580"/>
+          <a:ext cx="2118360" cy="1002492"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>60961</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2141221</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>52067</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="圖片 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA97F16A-75FD-4E5E-80CE-7FFE2599442B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2720341" y="2133601"/>
+          <a:ext cx="2080260" cy="966466"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2141220</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180423</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="圖片 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A90CF230-872A-492D-9429-2E8125F0F56A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2727960" y="3467101"/>
+          <a:ext cx="2072640" cy="904322"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2117192</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="圖片 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A52C6772-0415-470D-B37D-BDFB78B7C1A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2697480" y="6134100"/>
+          <a:ext cx="2079092" cy="800100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15385,7 +15613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
@@ -15560,13 +15788,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3BB8B2-1C50-4BDB-8ED9-D4EF7D92F16C}">
-  <dimension ref="A1:W71"/>
+  <dimension ref="A1:X71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="10" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E66" sqref="E66:E71"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -15576,20 +15804,21 @@
     <col min="3" max="3" width="8.375" customWidth="1"/>
     <col min="4" max="4" width="22.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
-    <col min="6" max="6" width="13.625" customWidth="1"/>
-    <col min="7" max="8" width="9.875" customWidth="1"/>
-    <col min="9" max="9" width="10.625" customWidth="1"/>
-    <col min="10" max="13" width="9.875" customWidth="1"/>
-    <col min="14" max="17" width="9.375" customWidth="1"/>
-    <col min="18" max="18" width="11.125" customWidth="1"/>
-    <col min="19" max="19" width="12.375" customWidth="1"/>
-    <col min="20" max="20" width="11.625" customWidth="1"/>
-    <col min="21" max="21" width="12" customWidth="1"/>
-    <col min="22" max="22" width="18.75" customWidth="1"/>
-    <col min="23" max="23" width="27.625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="10.375" customWidth="1"/>
+    <col min="7" max="7" width="13.625" customWidth="1"/>
+    <col min="8" max="9" width="9.875" customWidth="1"/>
+    <col min="10" max="10" width="10.625" customWidth="1"/>
+    <col min="11" max="14" width="9.875" customWidth="1"/>
+    <col min="15" max="18" width="9.375" customWidth="1"/>
+    <col min="19" max="19" width="11.125" customWidth="1"/>
+    <col min="20" max="20" width="12.375" customWidth="1"/>
+    <col min="21" max="21" width="11.625" customWidth="1"/>
+    <col min="22" max="22" width="12" customWidth="1"/>
+    <col min="23" max="23" width="18.75" customWidth="1"/>
+    <col min="24" max="24" width="27.625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>32</v>
       </c>
@@ -15606,61 +15835,64 @@
         <v>35</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>46</v>
       </c>
@@ -15673,63 +15905,66 @@
       <c r="D2" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="G2" s="2">
         <v>50</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>30</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>1</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="9">
+      <c r="L2" s="8">
         <v>0.89513888888888893</v>
       </c>
-      <c r="L2" s="9">
+      <c r="M2" s="8">
         <v>0.89583333333333337</v>
       </c>
-      <c r="M2" s="2">
+      <c r="N2" s="2">
         <f>50*30</f>
         <v>1500</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>437</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>421</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>1449</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>48.706373007600803</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>0</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>96.3453015607938</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>63.320691357826398</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>11.6668138608773</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>673</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>53</v>
       </c>
@@ -15742,60 +15977,61 @@
       <c r="D3" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="2">
+      <c r="E3" s="19"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="2">
         <v>50</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>30</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>1</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K3" s="9">
+      <c r="L3" s="8">
         <v>0.92013888888888884</v>
       </c>
-      <c r="L3" s="24">
+      <c r="M3" s="23">
         <v>0.92083333333333339</v>
       </c>
-      <c r="M3" s="25">
+      <c r="N3" s="24">
         <v>1500</v>
       </c>
-      <c r="N3" s="26">
+      <c r="O3" s="25">
         <v>433</v>
       </c>
-      <c r="O3" s="26">
+      <c r="P3" s="25">
         <v>417</v>
       </c>
-      <c r="P3" s="26">
+      <c r="Q3" s="25">
         <v>1440</v>
       </c>
-      <c r="Q3" s="26">
+      <c r="R3" s="25">
         <v>59.4495335408294</v>
       </c>
-      <c r="R3" s="26">
+      <c r="S3" s="25">
         <v>0</v>
       </c>
-      <c r="S3" s="26">
+      <c r="T3" s="25">
         <v>103.305785123966</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>65.458944021177601</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>16.7468362603305</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>648.85</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>55</v>
       </c>
@@ -15808,60 +16044,61 @@
       <c r="D4" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="2">
+      <c r="E4" s="19"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="2">
         <v>50</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>30</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>1</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="9">
+      <c r="L4" s="8">
         <v>0.95208333333333339</v>
       </c>
-      <c r="L4" s="24">
+      <c r="M4" s="23">
         <v>0.95208333333333339</v>
       </c>
-      <c r="M4" s="25">
+      <c r="N4" s="24">
         <v>1500</v>
       </c>
-      <c r="N4" s="26">
+      <c r="O4" s="25">
         <v>407</v>
       </c>
-      <c r="O4" s="26">
+      <c r="P4" s="25">
         <v>402</v>
       </c>
-      <c r="P4" s="26">
+      <c r="Q4" s="25">
         <v>424</v>
       </c>
-      <c r="Q4" s="26">
+      <c r="R4" s="25">
         <v>2.6537027381051201</v>
       </c>
-      <c r="R4" s="26">
+      <c r="S4" s="25">
         <v>0</v>
       </c>
-      <c r="S4" s="26">
+      <c r="T4" s="25">
         <v>113.61914861384599</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>71.993930252045104</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>18.418729169822701</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>648.85</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>57</v>
       </c>
@@ -15874,60 +16111,61 @@
       <c r="D5" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="2">
+      <c r="E5" s="19"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="2">
         <v>50</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>30</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>1</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K5" s="9">
+      <c r="L5" s="8">
         <v>0.92083333333333339</v>
       </c>
-      <c r="L5" s="24">
+      <c r="M5" s="23">
         <v>0.92152777777777783</v>
       </c>
-      <c r="M5" s="25">
+      <c r="N5" s="24">
         <v>1500</v>
       </c>
-      <c r="N5" s="26">
+      <c r="O5" s="25">
         <v>433</v>
       </c>
-      <c r="O5" s="26">
+      <c r="P5" s="25">
         <v>418</v>
       </c>
-      <c r="P5" s="26">
+      <c r="Q5" s="25">
         <v>1432</v>
       </c>
-      <c r="Q5" s="26">
+      <c r="R5" s="25">
         <v>36.1524303778072</v>
       </c>
-      <c r="R5" s="26">
+      <c r="S5" s="25">
         <v>0</v>
       </c>
-      <c r="S5" s="26">
+      <c r="T5" s="25">
         <v>102.22858311183801</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>67.871193582600696</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>12.978238090370001</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>679.85</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>59</v>
       </c>
@@ -15940,60 +16178,61 @@
       <c r="D6" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="2">
+      <c r="E6" s="19"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="2">
         <v>50</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>30</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>1</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="9">
+      <c r="L6" s="8">
         <v>0.95277777777777783</v>
       </c>
-      <c r="L6" s="24">
+      <c r="M6" s="23">
         <v>0.95277777777777783</v>
       </c>
-      <c r="M6" s="25">
+      <c r="N6" s="24">
         <v>1500</v>
       </c>
-      <c r="N6" s="26">
+      <c r="O6" s="25">
         <v>438</v>
       </c>
-      <c r="O6" s="26">
+      <c r="P6" s="25">
         <v>424</v>
       </c>
-      <c r="P6" s="26">
+      <c r="Q6" s="25">
         <v>1451</v>
       </c>
-      <c r="Q6" s="26">
+      <c r="R6" s="25">
         <v>27.3930522497139</v>
       </c>
-      <c r="R6" s="26">
+      <c r="S6" s="25">
         <v>0</v>
       </c>
-      <c r="S6" s="26">
+      <c r="T6" s="25">
         <v>104.072712134878</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>69.095540375875899</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>13.2123560327482</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>679.85</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>60</v>
       </c>
@@ -16006,60 +16245,61 @@
       <c r="D7" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="2">
+      <c r="E7" s="19"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="2">
         <v>50</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>30</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>1</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="9">
+      <c r="L7" s="8">
         <v>0.92152777777777783</v>
       </c>
-      <c r="L7" s="24">
+      <c r="M7" s="23">
         <v>0.92222222222222217</v>
       </c>
-      <c r="M7" s="25">
+      <c r="N7" s="24">
         <v>1500</v>
       </c>
-      <c r="N7" s="26">
+      <c r="O7" s="25">
         <v>429</v>
       </c>
-      <c r="O7" s="26">
+      <c r="P7" s="25">
         <v>418</v>
       </c>
-      <c r="P7" s="26">
+      <c r="Q7" s="25">
         <v>463</v>
       </c>
-      <c r="Q7" s="26">
+      <c r="R7" s="25">
         <v>6.3468222670001504</v>
       </c>
-      <c r="R7" s="26">
+      <c r="S7" s="25">
         <v>0</v>
       </c>
-      <c r="S7" s="26">
+      <c r="T7" s="25">
         <v>107.84384211661499</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>65.806860104069301</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>12.6379502480408</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>624.85</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>62</v>
       </c>
@@ -16072,60 +16312,61 @@
       <c r="D8" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="2">
+      <c r="E8" s="19"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="2">
         <v>50</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>30</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>1</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="9">
+      <c r="L8" s="8">
         <v>0.95347222222222217</v>
       </c>
-      <c r="L8" s="24">
+      <c r="M8" s="23">
         <v>0.95416666666666661</v>
       </c>
-      <c r="M8" s="25">
+      <c r="N8" s="24">
         <v>1500</v>
       </c>
-      <c r="N8" s="26">
+      <c r="O8" s="25">
         <v>435</v>
       </c>
-      <c r="O8" s="26">
+      <c r="P8" s="25">
         <v>423</v>
       </c>
-      <c r="P8" s="26">
+      <c r="Q8" s="25">
         <v>1434</v>
       </c>
-      <c r="Q8" s="26">
+      <c r="R8" s="25">
         <v>26.356324680552301</v>
       </c>
-      <c r="R8" s="26">
+      <c r="S8" s="25">
         <v>0</v>
       </c>
-      <c r="S8" s="26">
+      <c r="T8" s="25">
         <v>104.44955086693101</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>63.735646346876898</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>12.2401817422185</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>624.85</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>63</v>
       </c>
@@ -16138,63 +16379,66 @@
       <c r="D9" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="G9" s="2">
         <v>200</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <v>30</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="2">
         <v>1</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K9" s="9">
+      <c r="L9" s="8">
         <v>0.89583333333333337</v>
       </c>
-      <c r="L9" s="24">
+      <c r="M9" s="23">
         <v>0.8965277777777777</v>
       </c>
-      <c r="M9" s="25">
+      <c r="N9" s="24">
         <f>200*30</f>
         <v>6000</v>
       </c>
-      <c r="N9" s="26">
+      <c r="O9" s="25">
         <v>1047</v>
       </c>
-      <c r="O9" s="26">
+      <c r="P9" s="25">
         <v>421</v>
       </c>
-      <c r="P9" s="26">
+      <c r="Q9" s="25">
         <v>21049</v>
       </c>
-      <c r="Q9" s="26">
+      <c r="R9" s="25">
         <v>619.76436433263802</v>
       </c>
-      <c r="R9" s="26">
+      <c r="S9" s="25">
         <v>6.6666666666666599E-4</v>
       </c>
-      <c r="S9" s="26">
+      <c r="T9" s="25">
         <v>134.096191668156</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>88.300159658278204</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>16.227385236009201</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>674.28733333333298</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>64</v>
       </c>
@@ -16207,60 +16451,61 @@
       <c r="D10" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="2">
+      <c r="E10" s="19"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="2">
         <v>200</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <v>30</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I10" s="2">
         <v>1</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K10" s="9">
+      <c r="L10" s="8">
         <v>0.92361111111111116</v>
       </c>
-      <c r="L10" s="24">
+      <c r="M10" s="23">
         <v>0.9243055555555556</v>
       </c>
-      <c r="M10" s="25">
+      <c r="N10" s="24">
         <v>6000</v>
       </c>
-      <c r="N10" s="26">
+      <c r="O10" s="25">
         <v>1062</v>
       </c>
-      <c r="O10" s="26">
+      <c r="P10" s="25">
         <v>416</v>
       </c>
-      <c r="P10" s="26">
+      <c r="Q10" s="25">
         <v>22459</v>
       </c>
-      <c r="Q10" s="26">
+      <c r="R10" s="25">
         <v>875.41527143583903</v>
       </c>
-      <c r="R10" s="26">
+      <c r="S10" s="25">
         <v>0</v>
       </c>
-      <c r="S10" s="26">
+      <c r="T10" s="25">
         <v>118.07072436389301</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>74.814638187024002</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>19.140371332428099</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>648.85</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>65</v>
       </c>
@@ -16273,60 +16518,61 @@
       <c r="D11" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="2">
+      <c r="E11" s="19"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="2">
         <v>200</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <v>30</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="2">
         <v>1</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K11" s="9">
+      <c r="L11" s="8">
         <v>0.95486111111111116</v>
       </c>
-      <c r="L11" s="24">
+      <c r="M11" s="23">
         <v>0.9555555555555556</v>
       </c>
-      <c r="M11" s="25">
+      <c r="N11" s="24">
         <v>6000</v>
       </c>
-      <c r="N11" s="26">
+      <c r="O11" s="25">
         <v>1059</v>
       </c>
-      <c r="O11" s="26">
+      <c r="P11" s="25">
         <v>402</v>
       </c>
-      <c r="P11" s="26">
+      <c r="Q11" s="25">
         <v>22457</v>
       </c>
-      <c r="Q11" s="26">
+      <c r="R11" s="25">
         <v>483.79148483546601</v>
       </c>
-      <c r="R11" s="26">
+      <c r="S11" s="25">
         <v>0</v>
       </c>
-      <c r="S11" s="26">
+      <c r="T11" s="25">
         <v>144.80511644744701</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>91.7547108799927</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>23.4742669240979</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>648.85016666666604</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>66</v>
       </c>
@@ -16339,60 +16585,61 @@
       <c r="D12" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="2">
+      <c r="E12" s="19"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="2">
         <v>200</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <v>30</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <v>1</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K12" s="9">
+      <c r="L12" s="8">
         <v>0.9243055555555556</v>
       </c>
-      <c r="L12" s="24">
+      <c r="M12" s="23">
         <v>0.92569444444444438</v>
       </c>
-      <c r="M12" s="25">
+      <c r="N12" s="24">
         <v>6000</v>
       </c>
-      <c r="N12" s="26">
+      <c r="O12" s="25">
         <v>1060</v>
       </c>
-      <c r="O12" s="26">
+      <c r="P12" s="25">
         <v>417</v>
       </c>
-      <c r="P12" s="26">
+      <c r="Q12" s="25">
         <v>21041</v>
       </c>
-      <c r="Q12" s="26">
+      <c r="R12" s="25">
         <v>494.27674377990502</v>
       </c>
-      <c r="R12" s="26">
+      <c r="S12" s="25">
         <v>1.6666666666666601E-4</v>
       </c>
-      <c r="S12" s="26">
+      <c r="T12" s="25">
         <v>145.00809628537499</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>96.318701361867696</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>18.406162768567</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>680.171333333333</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>67</v>
       </c>
@@ -16405,60 +16652,61 @@
       <c r="D13" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="2">
+      <c r="E13" s="19"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="2">
         <v>200</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H13" s="2">
         <v>30</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="2">
         <v>1</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K13" s="9">
+      <c r="L13" s="8">
         <v>0.9555555555555556</v>
       </c>
-      <c r="L13" s="24">
+      <c r="M13" s="23">
         <v>0.95624999999999993</v>
       </c>
-      <c r="M13" s="25">
+      <c r="N13" s="24">
         <v>6000</v>
       </c>
-      <c r="N13" s="26">
+      <c r="O13" s="25">
         <v>1076</v>
       </c>
-      <c r="O13" s="26">
+      <c r="P13" s="25">
         <v>423</v>
       </c>
-      <c r="P13" s="26">
+      <c r="Q13" s="25">
         <v>3760</v>
       </c>
-      <c r="Q13" s="26">
+      <c r="R13" s="25">
         <v>421.46334046865701</v>
       </c>
-      <c r="R13" s="26">
+      <c r="S13" s="25">
         <v>0</v>
       </c>
-      <c r="S13" s="26">
+      <c r="T13" s="25">
         <v>173.56591165495001</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>115.233047265975</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>22.034734878069901</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>679.84916666666595</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>68</v>
       </c>
@@ -16471,60 +16719,61 @@
       <c r="D14" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="2">
+      <c r="E14" s="19"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="2">
         <v>200</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H14" s="2">
         <v>30</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I14" s="2">
         <v>1</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K14" s="9">
+      <c r="L14" s="8">
         <v>0.92638888888888893</v>
       </c>
-      <c r="L14" s="24">
+      <c r="M14" s="23">
         <v>0.92708333333333337</v>
       </c>
-      <c r="M14" s="25">
+      <c r="N14" s="24">
         <v>6000</v>
       </c>
-      <c r="N14" s="26">
+      <c r="O14" s="25">
         <v>997</v>
       </c>
-      <c r="O14" s="26">
+      <c r="P14" s="25">
         <v>418</v>
       </c>
-      <c r="P14" s="26">
+      <c r="Q14" s="25">
         <v>21052</v>
       </c>
-      <c r="Q14" s="26">
+      <c r="R14" s="25">
         <v>430.25137980251998</v>
       </c>
-      <c r="R14" s="26">
+      <c r="S14" s="25">
         <v>1.6666666666666601E-4</v>
       </c>
-      <c r="S14" s="26">
+      <c r="T14" s="25">
         <v>115.211797688083</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>70.339784043885999</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>13.4991323111486</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>625.17849999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>69</v>
       </c>
@@ -16537,60 +16786,61 @@
       <c r="D15" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="2">
+      <c r="E15" s="19"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="2">
         <v>200</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H15" s="2">
         <v>30</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I15" s="2">
         <v>1</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K15" s="9">
+      <c r="L15" s="8">
         <v>0.95763888888888893</v>
       </c>
-      <c r="L15" s="24">
+      <c r="M15" s="23">
         <v>0.95833333333333337</v>
       </c>
-      <c r="M15" s="26">
+      <c r="N15" s="25">
         <v>6000</v>
       </c>
-      <c r="N15" s="26">
+      <c r="O15" s="25">
         <v>987</v>
       </c>
-      <c r="O15" s="26">
+      <c r="P15" s="25">
         <v>423</v>
       </c>
-      <c r="P15" s="26">
+      <c r="Q15" s="25">
         <v>2727</v>
       </c>
-      <c r="Q15" s="26">
+      <c r="R15" s="25">
         <v>348.47084609280898</v>
       </c>
-      <c r="R15" s="26">
+      <c r="S15" s="25">
         <v>0</v>
       </c>
-      <c r="S15" s="26">
+      <c r="T15" s="25">
         <v>190.276852820854</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>116.108025719087</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>22.298068689943801</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>624.85066666666603</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>70</v>
       </c>
@@ -16603,63 +16853,66 @@
       <c r="D16" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="G16" s="20">
         <v>400</v>
       </c>
-      <c r="G16" s="2">
+      <c r="H16" s="2">
         <v>30</v>
       </c>
-      <c r="H16" s="2">
+      <c r="I16" s="2">
         <v>1</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K16" s="9">
+      <c r="L16" s="8">
         <v>0.90902777777777777</v>
       </c>
-      <c r="L16" s="24">
+      <c r="M16" s="23">
         <v>0.91041666666666676</v>
       </c>
-      <c r="M16" s="25">
+      <c r="N16" s="24">
         <v>11904</v>
       </c>
-      <c r="N16" s="26">
+      <c r="O16" s="25">
         <v>2330</v>
       </c>
-      <c r="O16" s="26">
+      <c r="P16" s="25">
         <v>416</v>
       </c>
-      <c r="P16" s="26">
+      <c r="Q16" s="25">
         <v>98478</v>
       </c>
-      <c r="Q16" s="26">
+      <c r="R16" s="25">
         <v>4951.38</v>
       </c>
-      <c r="R16" s="26">
+      <c r="S16" s="25">
         <v>6.7000000000000002E-4</v>
       </c>
-      <c r="S16" s="26">
+      <c r="T16" s="25">
         <v>87.606070000000003</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>57.69</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>10.6</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>674.3</v>
       </c>
-      <c r="W16" s="14"/>
+      <c r="X16" s="13"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>71</v>
       </c>
@@ -16672,60 +16925,61 @@
       <c r="D17" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="21">
+      <c r="E17" s="19"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="20">
         <v>400</v>
       </c>
-      <c r="G17" s="2">
+      <c r="H17" s="2">
         <v>30</v>
       </c>
-      <c r="H17" s="2">
+      <c r="I17" s="2">
         <v>1</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K17" s="9">
+      <c r="L17" s="8">
         <v>0.91180555555555554</v>
       </c>
-      <c r="L17" s="24">
+      <c r="M17" s="23">
         <v>0.91319444444444453</v>
       </c>
-      <c r="M17" s="25">
+      <c r="N17" s="24">
         <v>12000</v>
       </c>
-      <c r="N17" s="26">
+      <c r="O17" s="25">
         <v>2421</v>
       </c>
-      <c r="O17" s="26">
+      <c r="P17" s="25">
         <v>423</v>
       </c>
-      <c r="P17" s="26">
+      <c r="Q17" s="25">
         <v>87730</v>
       </c>
-      <c r="Q17" s="26">
+      <c r="R17" s="25">
         <v>3810.8740984481601</v>
       </c>
-      <c r="R17" s="26">
+      <c r="S17" s="25">
         <v>0</v>
       </c>
-      <c r="S17" s="26">
+      <c r="T17" s="25">
         <v>108.75574366271201</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>68.912278650907595</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>17.630325632822402</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>648.85008333333303</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>72</v>
       </c>
@@ -16738,60 +16992,61 @@
       <c r="D18" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="21">
+      <c r="E18" s="19"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="20">
         <v>400</v>
       </c>
-      <c r="G18" s="2">
+      <c r="H18" s="2">
         <v>30</v>
       </c>
-      <c r="H18" s="2">
+      <c r="I18" s="2">
         <v>1</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K18" s="9">
+      <c r="L18" s="8">
         <v>0.9590277777777777</v>
       </c>
-      <c r="L18" s="24">
+      <c r="M18" s="23">
         <v>0.9604166666666667</v>
       </c>
-      <c r="M18" s="26">
+      <c r="N18" s="25">
         <v>12000</v>
       </c>
-      <c r="N18" s="26">
+      <c r="O18" s="25">
         <v>2229</v>
       </c>
-      <c r="O18" s="26">
+      <c r="P18" s="25">
         <v>402</v>
       </c>
-      <c r="P18" s="26">
+      <c r="Q18" s="25">
         <v>99452</v>
       </c>
-      <c r="Q18" s="26">
+      <c r="R18" s="25">
         <v>3813.0221806761501</v>
       </c>
-      <c r="R18" s="26">
+      <c r="S18" s="25">
         <v>0</v>
       </c>
-      <c r="S18" s="26">
+      <c r="T18" s="25">
         <v>101.24617162913501</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>64.153893455805999</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>16.412953603941801</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>648.85008333333303</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>73</v>
       </c>
@@ -16804,60 +17059,61 @@
       <c r="D19" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="21">
+      <c r="E19" s="19"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="20">
         <v>400</v>
       </c>
-      <c r="G19" s="2">
+      <c r="H19" s="2">
         <v>30</v>
       </c>
-      <c r="H19" s="2">
+      <c r="I19" s="2">
         <v>1</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="K19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K19" s="9">
+      <c r="L19" s="8">
         <v>0.91388888888888886</v>
       </c>
-      <c r="L19" s="24">
+      <c r="M19" s="23">
         <v>0.91527777777777775</v>
       </c>
-      <c r="M19" s="25">
+      <c r="N19" s="24">
         <v>12000</v>
       </c>
-      <c r="N19" s="26">
+      <c r="O19" s="25">
         <v>2441</v>
       </c>
-      <c r="O19" s="26">
+      <c r="P19" s="25">
         <v>423</v>
       </c>
-      <c r="P19" s="26">
+      <c r="Q19" s="25">
         <v>95997</v>
       </c>
-      <c r="Q19" s="26">
+      <c r="R19" s="25">
         <v>4511.4468112697396</v>
       </c>
-      <c r="R19" s="26">
+      <c r="S19" s="25">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="S19" s="26">
+      <c r="T19" s="25">
         <v>90.977323902017403</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>60.486956422335602</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>11.544080645711499</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>680.81408333333297</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>74</v>
       </c>
@@ -16870,60 +17126,61 @@
       <c r="D20" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="21">
+      <c r="E20" s="19"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="20">
         <v>400</v>
       </c>
-      <c r="G20" s="2">
+      <c r="H20" s="2">
         <v>30</v>
       </c>
-      <c r="H20" s="2">
+      <c r="I20" s="2">
         <v>1</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="K20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="9">
+      <c r="L20" s="8">
         <v>0.96180555555555547</v>
       </c>
-      <c r="L20" s="24">
+      <c r="M20" s="23">
         <v>0.96319444444444446</v>
       </c>
-      <c r="M20" s="26">
+      <c r="N20" s="25">
         <v>12000</v>
       </c>
-      <c r="N20" s="26">
+      <c r="O20" s="25">
         <v>2491</v>
       </c>
-      <c r="O20" s="26">
+      <c r="P20" s="25">
         <v>423</v>
       </c>
-      <c r="P20" s="26">
+      <c r="Q20" s="25">
         <v>82905</v>
       </c>
-      <c r="Q20" s="26">
+      <c r="R20" s="25">
         <v>4135.3630373181404</v>
       </c>
-      <c r="R20" s="26">
+      <c r="S20" s="25">
         <v>2.0833333333333298E-3</v>
       </c>
-      <c r="S20" s="26">
+      <c r="T20" s="25">
         <v>102.552707818789</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>68.488650833668004</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>12.992263012443001</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>683.86666666666599</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>75</v>
       </c>
@@ -16936,63 +17193,64 @@
       <c r="D21" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="21">
+      <c r="E21" s="19"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="20">
         <v>400</v>
       </c>
-      <c r="G21" s="2">
+      <c r="H21" s="2">
         <v>30</v>
       </c>
-      <c r="H21" s="2">
+      <c r="I21" s="2">
         <v>1</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="K21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K21" s="9">
+      <c r="L21" s="8">
         <v>0.91666666666666663</v>
       </c>
-      <c r="L21" s="24">
+      <c r="M21" s="23">
         <v>0.91805555555555562</v>
       </c>
-      <c r="M21" s="25">
+      <c r="N21" s="24">
         <v>12000</v>
       </c>
-      <c r="N21" s="26">
+      <c r="O21" s="25">
         <v>2399</v>
       </c>
-      <c r="O21" s="26">
+      <c r="P21" s="25">
         <v>2</v>
       </c>
-      <c r="P21" s="26">
+      <c r="Q21" s="25">
         <v>97429</v>
       </c>
-      <c r="Q21" s="26">
+      <c r="R21" s="25">
         <v>4402.3606066768998</v>
       </c>
-      <c r="R21" s="26">
+      <c r="S21" s="25">
         <v>8.3333333333333295E-4</v>
       </c>
-      <c r="S21" s="26">
+      <c r="T21" s="25">
         <v>104.753175330627</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>64.086650858212195</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>12.265532931779401</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>626.47008333333304</v>
       </c>
-      <c r="W21" s="7" t="s">
+      <c r="X21" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>77</v>
       </c>
@@ -17005,60 +17263,61 @@
       <c r="D22" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="21">
+      <c r="E22" s="19"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="20">
         <v>400</v>
       </c>
-      <c r="G22" s="2">
+      <c r="H22" s="2">
         <v>30</v>
       </c>
-      <c r="H22" s="2">
+      <c r="I22" s="2">
         <v>1</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="K22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K22" s="9">
+      <c r="L22" s="8">
         <v>0.96388888888888891</v>
       </c>
-      <c r="L22" s="24">
+      <c r="M22" s="23">
         <v>0.96527777777777779</v>
       </c>
-      <c r="M22" s="26">
+      <c r="N22" s="25">
         <v>12000</v>
       </c>
-      <c r="N22" s="26">
+      <c r="O22" s="25">
         <v>2369</v>
       </c>
-      <c r="O22" s="26">
+      <c r="P22" s="25">
         <v>1</v>
       </c>
-      <c r="P22" s="26">
+      <c r="Q22" s="25">
         <v>98231</v>
       </c>
-      <c r="Q22" s="26">
+      <c r="R22" s="25">
         <v>4181.4013655749804</v>
       </c>
-      <c r="R22" s="26">
+      <c r="S22" s="25">
         <v>2.0833333333333298E-3</v>
       </c>
-      <c r="S22" s="26">
+      <c r="T22" s="25">
         <v>102.21726279206401</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>62.779267411006998</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>11.9536300970212</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>628.91499999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>78</v>
       </c>
@@ -17071,62 +17330,65 @@
       <c r="D23" t="s">
         <v>79</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="G23" s="2">
         <v>400</v>
       </c>
-      <c r="G23" s="2">
+      <c r="H23" s="2">
         <v>30</v>
       </c>
-      <c r="H23" s="2">
+      <c r="I23" s="2">
         <v>1</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="K23" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K23" s="9">
+      <c r="L23" s="8">
         <v>0.9291666666666667</v>
       </c>
-      <c r="L23" s="24">
+      <c r="M23" s="23">
         <v>0.93125000000000002</v>
       </c>
-      <c r="M23" s="25">
+      <c r="N23" s="24">
         <v>11949</v>
       </c>
-      <c r="N23" s="26">
+      <c r="O23" s="25">
         <v>2541</v>
       </c>
-      <c r="O23" s="26">
+      <c r="P23" s="25">
         <v>416</v>
       </c>
-      <c r="P23" s="26">
+      <c r="Q23" s="25">
         <v>154430</v>
       </c>
-      <c r="Q23" s="26">
+      <c r="R23" s="25">
         <v>5304.7239218363902</v>
       </c>
-      <c r="R23" s="26">
+      <c r="S23" s="25">
         <v>3.0964934304125798E-3</v>
       </c>
-      <c r="S23" s="26">
+      <c r="T23" s="25">
         <v>66.696808332496005</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>38.382568209473398</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>8.05155759849068</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>589.28981504728404</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>81</v>
       </c>
@@ -17139,60 +17401,61 @@
       <c r="D24" t="s">
         <v>79</v>
       </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="2">
+      <c r="E24" s="19"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="2">
         <v>400</v>
       </c>
-      <c r="G24" s="2">
+      <c r="H24" s="2">
         <v>30</v>
       </c>
-      <c r="H24" s="2">
+      <c r="I24" s="2">
         <v>1</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="J24" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="K24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K24" s="9">
+      <c r="L24" s="8">
         <v>0.93125000000000002</v>
       </c>
-      <c r="L24" s="24">
+      <c r="M24" s="23">
         <v>0.93333333333333324</v>
       </c>
-      <c r="M24" s="25">
+      <c r="N24" s="24">
         <v>11904</v>
       </c>
-      <c r="N24" s="26">
+      <c r="O24" s="25">
         <v>2461</v>
       </c>
-      <c r="O24" s="26">
+      <c r="P24" s="25">
         <v>417</v>
       </c>
-      <c r="P24" s="26">
+      <c r="Q24" s="25">
         <v>94997</v>
       </c>
-      <c r="Q24" s="26">
+      <c r="R24" s="25">
         <v>3747.4061604050698</v>
       </c>
-      <c r="R24" s="26">
+      <c r="S24" s="25">
         <v>0</v>
       </c>
-      <c r="S24" s="26">
+      <c r="T24" s="25">
         <v>102.93303818483599</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>56.175920141290803</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>16.686410486995001</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>558.850134408602</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>82</v>
       </c>
@@ -17205,60 +17468,61 @@
       <c r="D25" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="2">
+      <c r="E25" s="19"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="2">
         <v>400</v>
       </c>
-      <c r="G25" s="2">
+      <c r="H25" s="2">
         <v>30</v>
       </c>
-      <c r="H25" s="2">
+      <c r="I25" s="2">
         <v>1</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="J25" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="K25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K25" s="9">
+      <c r="L25" s="8">
         <v>0.96597222222222223</v>
       </c>
-      <c r="L25" s="24">
+      <c r="M25" s="23">
         <v>0.96736111111111101</v>
       </c>
-      <c r="M25" s="26">
+      <c r="N25" s="25">
         <v>12000</v>
       </c>
-      <c r="N25" s="26">
+      <c r="O25" s="25">
         <v>2154</v>
       </c>
-      <c r="O25" s="26">
+      <c r="P25" s="25">
         <v>430</v>
       </c>
-      <c r="P25" s="26">
+      <c r="Q25" s="25">
         <v>63402</v>
       </c>
-      <c r="Q25" s="26">
+      <c r="R25" s="25">
         <v>3532.5022780247</v>
       </c>
-      <c r="R25" s="26">
+      <c r="S25" s="25">
         <v>0</v>
       </c>
-      <c r="S25" s="26">
+      <c r="T25" s="25">
         <v>153.52139704471301</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>83.784614777233998</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>24.887257724045199</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>558.85008333333303</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>83</v>
       </c>
@@ -17271,60 +17535,61 @@
       <c r="D26" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="2">
+      <c r="E26" s="19"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="2">
         <v>400</v>
       </c>
-      <c r="G26" s="2">
+      <c r="H26" s="2">
         <v>30</v>
       </c>
-      <c r="H26" s="2">
+      <c r="I26" s="2">
         <v>1</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="J26" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="K26" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K26" s="9">
+      <c r="L26" s="8">
         <v>0.93333333333333324</v>
       </c>
-      <c r="L26" s="24">
+      <c r="M26" s="23">
         <v>0.93472222222222223</v>
       </c>
-      <c r="M26" s="25">
+      <c r="N26" s="24">
         <v>12000</v>
       </c>
-      <c r="N26" s="26">
+      <c r="O26" s="25">
         <v>2360</v>
       </c>
-      <c r="O26" s="26">
+      <c r="P26" s="25">
         <v>1</v>
       </c>
-      <c r="P26" s="26">
+      <c r="Q26" s="25">
         <v>99033</v>
       </c>
-      <c r="Q26" s="26">
+      <c r="R26" s="25">
         <v>4260.9860422188804</v>
       </c>
-      <c r="R26" s="26">
+      <c r="S26" s="25">
         <v>4.1666666666666599E-4</v>
       </c>
-      <c r="S26" s="26">
+      <c r="T26" s="25">
         <v>98.498715412586506</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>56.811859501842697</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>12.499509430225901</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>590.62033333333295</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>84</v>
       </c>
@@ -17337,60 +17602,61 @@
       <c r="D27" t="s">
         <v>79</v>
       </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="2">
+      <c r="E27" s="19"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="2">
         <v>400</v>
       </c>
-      <c r="G27" s="2">
+      <c r="H27" s="2">
         <v>30</v>
       </c>
-      <c r="H27" s="2">
+      <c r="I27" s="2">
         <v>1</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="J27" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="K27" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K27" s="9">
+      <c r="L27" s="8">
         <v>0.96736111111111101</v>
       </c>
-      <c r="L27" s="24">
+      <c r="M27" s="23">
         <v>0.96875</v>
       </c>
-      <c r="M27" s="26">
+      <c r="N27" s="25">
         <v>12000</v>
       </c>
-      <c r="N27" s="26">
+      <c r="O27" s="25">
         <v>2421</v>
       </c>
-      <c r="O27" s="26">
+      <c r="P27" s="25">
         <v>424</v>
       </c>
-      <c r="P27" s="26">
+      <c r="Q27" s="25">
         <v>93721</v>
       </c>
-      <c r="Q27" s="26">
+      <c r="R27" s="25">
         <v>4357.48969876919</v>
       </c>
-      <c r="R27" s="26">
+      <c r="S27" s="25">
         <v>1.83333333333333E-3</v>
       </c>
-      <c r="S27" s="26">
+      <c r="T27" s="25">
         <v>105.44166879014401</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>61.118077438668003</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>13.361608084300601</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>593.55008333333296</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>85</v>
       </c>
@@ -17403,60 +17669,61 @@
       <c r="D28" t="s">
         <v>79</v>
       </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="2">
+      <c r="E28" s="19"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="2">
         <v>400</v>
       </c>
-      <c r="G28" s="2">
+      <c r="H28" s="2">
         <v>30</v>
       </c>
-      <c r="H28" s="2">
+      <c r="I28" s="2">
         <v>1</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="J28" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="K28" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K28" s="9">
+      <c r="L28" s="8">
         <v>0.93611111111111101</v>
       </c>
-      <c r="L28" s="24">
+      <c r="M28" s="23">
         <v>0.9375</v>
       </c>
-      <c r="M28" s="25">
+      <c r="N28" s="24">
         <v>12000</v>
       </c>
-      <c r="N28" s="26">
+      <c r="O28" s="25">
         <v>2379</v>
       </c>
-      <c r="O28" s="26">
+      <c r="P28" s="25">
         <v>4</v>
       </c>
-      <c r="P28" s="26">
+      <c r="Q28" s="25">
         <v>95207</v>
       </c>
-      <c r="Q28" s="26">
+      <c r="R28" s="25">
         <v>3705.0454401132201</v>
       </c>
-      <c r="R28" s="26">
+      <c r="S28" s="25">
         <v>8.3333333333333295E-4</v>
       </c>
-      <c r="S28" s="26">
+      <c r="T28" s="25">
         <v>94.835421029754599</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>49.691175181273898</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>11.104264630339401</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>536.54808333333301</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>86</v>
       </c>
@@ -17469,60 +17736,61 @@
       <c r="D29" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="2">
+      <c r="E29" s="19"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="2">
         <v>400</v>
       </c>
-      <c r="G29" s="2">
+      <c r="H29" s="2">
         <v>30</v>
       </c>
-      <c r="H29" s="2">
+      <c r="I29" s="2">
         <v>1</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="J29" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="K29" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K29" s="9">
+      <c r="L29" s="8">
         <v>0.96875</v>
       </c>
-      <c r="L29" s="24">
+      <c r="M29" s="23">
         <v>0.97083333333333333</v>
       </c>
-      <c r="M29" s="26">
+      <c r="N29" s="25">
         <v>12000</v>
       </c>
-      <c r="N29" s="26">
+      <c r="O29" s="25">
         <v>2268</v>
       </c>
-      <c r="O29" s="26">
+      <c r="P29" s="25">
         <v>422</v>
       </c>
-      <c r="P29" s="26">
+      <c r="Q29" s="25">
         <v>92387</v>
       </c>
-      <c r="Q29" s="26">
+      <c r="R29" s="25">
         <v>3522.59624139998</v>
       </c>
-      <c r="R29" s="26">
+      <c r="S29" s="25">
         <v>1.16666666666666E-3</v>
       </c>
-      <c r="S29" s="26">
+      <c r="T29" s="25">
         <v>97.551458394302998</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>51.181657137616597</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>11.41847441713</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>537.255083333333</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>87</v>
       </c>
@@ -17535,62 +17803,65 @@
       <c r="D30" t="s">
         <v>79</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="G30" s="2">
         <v>400</v>
       </c>
-      <c r="G30" s="2">
+      <c r="H30" s="2">
         <v>30</v>
       </c>
-      <c r="H30" s="2">
+      <c r="I30" s="2">
         <v>1</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="J30" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="K30" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K30" s="9">
+      <c r="L30" s="8">
         <v>0.89861111111111114</v>
       </c>
-      <c r="L30" s="24">
+      <c r="M30" s="23">
         <v>0.90069444444444446</v>
       </c>
-      <c r="M30" s="25">
+      <c r="N30" s="24">
         <v>11872</v>
       </c>
-      <c r="N30" s="26">
+      <c r="O30" s="25">
         <v>2297</v>
       </c>
-      <c r="O30" s="26">
+      <c r="P30" s="25">
         <v>421</v>
       </c>
-      <c r="P30" s="26">
+      <c r="Q30" s="25">
         <v>93784</v>
       </c>
-      <c r="Q30" s="26">
+      <c r="R30" s="25">
         <v>3698.050788173</v>
       </c>
-      <c r="R30" s="26">
+      <c r="S30" s="25">
         <v>1.5161725067385399E-3</v>
       </c>
-      <c r="S30" s="26">
+      <c r="T30" s="25">
         <v>103.81978452497501</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>77.640903334659598</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>12.5528658221981</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>765.79127358490496</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>89</v>
       </c>
@@ -17603,60 +17874,61 @@
       <c r="D31" t="s">
         <v>79</v>
       </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="2">
+      <c r="E31" s="19"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="2">
         <v>400</v>
       </c>
-      <c r="G31" s="2">
+      <c r="H31" s="2">
         <v>30</v>
       </c>
-      <c r="H31" s="2">
+      <c r="I31" s="2">
         <v>1</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="J31" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="K31" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K31" s="9">
+      <c r="L31" s="8">
         <v>0.89583333333333337</v>
       </c>
-      <c r="L31" s="24">
+      <c r="M31" s="23">
         <v>0.89861111111111114</v>
       </c>
-      <c r="M31" s="25">
+      <c r="N31" s="24">
         <v>12000</v>
       </c>
-      <c r="N31" s="26">
+      <c r="O31" s="25">
         <v>2210</v>
       </c>
-      <c r="O31" s="26">
+      <c r="P31" s="25">
         <v>2</v>
       </c>
-      <c r="P31" s="26">
+      <c r="Q31" s="25">
         <v>100989</v>
       </c>
-      <c r="Q31" s="26">
+      <c r="R31" s="25">
         <v>4724.12636786241</v>
       </c>
-      <c r="R31" s="26">
+      <c r="S31" s="25">
         <v>8.3333333333333303E-5</v>
       </c>
-      <c r="S31" s="26">
+      <c r="T31" s="25">
         <v>100.705779672538</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>72.675856812116507</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>16.323990555686098</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>738.98516666666603</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>90</v>
       </c>
@@ -17669,60 +17941,61 @@
       <c r="D32" t="s">
         <v>79</v>
       </c>
-      <c r="E32" s="20"/>
-      <c r="F32" s="2">
+      <c r="E32" s="19"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="2">
         <v>400</v>
       </c>
-      <c r="G32" s="2">
+      <c r="H32" s="2">
         <v>30</v>
       </c>
-      <c r="H32" s="2">
+      <c r="I32" s="2">
         <v>1</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="J32" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="K32" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K32" s="9">
+      <c r="L32" s="8">
         <v>0.97083333333333333</v>
       </c>
-      <c r="L32" s="24">
+      <c r="M32" s="23">
         <v>0.97222222222222221</v>
       </c>
-      <c r="M32" s="26">
+      <c r="N32" s="25">
         <v>12000</v>
       </c>
-      <c r="N32" s="26">
+      <c r="O32" s="25">
         <v>2327</v>
       </c>
-      <c r="O32" s="26">
+      <c r="P32" s="25">
         <v>422</v>
       </c>
-      <c r="P32" s="26">
+      <c r="Q32" s="25">
         <v>90684</v>
       </c>
-      <c r="Q32" s="26">
+      <c r="R32" s="25">
         <v>4559.5083457444398</v>
       </c>
-      <c r="R32" s="26">
+      <c r="S32" s="25">
         <v>0</v>
       </c>
-      <c r="S32" s="26">
+      <c r="T32" s="25">
         <v>111.47961316574199</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>80.436224226145598</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>18.071890415540199</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>738.84983333333298</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>91</v>
       </c>
@@ -17735,60 +18008,61 @@
       <c r="D33" t="s">
         <v>79</v>
       </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="2">
+      <c r="E33" s="19"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="2">
         <v>400</v>
       </c>
-      <c r="G33" s="2">
+      <c r="H33" s="2">
         <v>30</v>
       </c>
-      <c r="H33" s="2">
+      <c r="I33" s="2">
         <v>1</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="J33" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="K33" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K33" s="9">
+      <c r="L33" s="8">
         <v>0.90069444444444446</v>
       </c>
-      <c r="L33" s="24">
+      <c r="M33" s="23">
         <v>0.90277777777777779</v>
       </c>
-      <c r="M33" s="25">
+      <c r="N33" s="24">
         <v>12000</v>
       </c>
-      <c r="N33" s="26">
+      <c r="O33" s="25">
         <v>2374</v>
       </c>
-      <c r="O33" s="26">
+      <c r="P33" s="25">
         <v>423</v>
       </c>
-      <c r="P33" s="26">
+      <c r="Q33" s="25">
         <v>94369</v>
       </c>
-      <c r="Q33" s="26">
+      <c r="R33" s="25">
         <v>5032.5723703348203</v>
       </c>
-      <c r="R33" s="26">
+      <c r="S33" s="25">
         <v>1.5E-3</v>
       </c>
-      <c r="S33" s="26">
+      <c r="T33" s="25">
         <v>103.736233337367</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>78.268912074357203</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>13.149884539411101</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>772.60725000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>92</v>
       </c>
@@ -17801,60 +18075,61 @@
       <c r="D34" t="s">
         <v>79</v>
       </c>
-      <c r="E34" s="20"/>
-      <c r="F34" s="2">
+      <c r="E34" s="19"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="2">
         <v>400</v>
       </c>
-      <c r="G34" s="2">
+      <c r="H34" s="2">
         <v>30</v>
       </c>
-      <c r="H34" s="2">
+      <c r="I34" s="2">
         <v>1</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="J34" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="K34" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K34" s="9">
+      <c r="L34" s="8">
         <v>0.97222222222222221</v>
       </c>
-      <c r="L34" s="24">
+      <c r="M34" s="23">
         <v>0.97361111111111109</v>
       </c>
-      <c r="M34" s="26">
+      <c r="N34" s="25">
         <v>12000</v>
       </c>
-      <c r="N34" s="26">
+      <c r="O34" s="25">
         <v>2346</v>
       </c>
-      <c r="O34" s="26">
+      <c r="P34" s="25">
         <v>418</v>
       </c>
-      <c r="P34" s="26">
+      <c r="Q34" s="25">
         <v>99102</v>
       </c>
-      <c r="Q34" s="26">
+      <c r="R34" s="25">
         <v>4651.8374866951399</v>
       </c>
-      <c r="R34" s="26">
+      <c r="S34" s="25">
         <v>9.16666666666666E-4</v>
       </c>
-      <c r="S34" s="26">
+      <c r="T34" s="25">
         <v>101.987047644949</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>76.842335261702999</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>12.9357057981761</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>771.53475000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>93</v>
       </c>
@@ -17867,60 +18142,61 @@
       <c r="D35" t="s">
         <v>79</v>
       </c>
-      <c r="E35" s="20"/>
-      <c r="F35" s="2">
+      <c r="E35" s="19"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="2">
         <v>400</v>
       </c>
-      <c r="G35" s="2">
+      <c r="H35" s="2">
         <v>30</v>
       </c>
-      <c r="H35" s="2">
+      <c r="I35" s="2">
         <v>1</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="J35" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="K35" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K35" s="9">
+      <c r="L35" s="8">
         <v>0.90347222222222223</v>
       </c>
-      <c r="L35" s="24">
+      <c r="M35" s="23">
         <v>0.90486111111111101</v>
       </c>
-      <c r="M35" s="25">
+      <c r="N35" s="24">
         <v>12000</v>
       </c>
-      <c r="N35" s="26">
+      <c r="O35" s="25">
         <v>2339</v>
       </c>
-      <c r="O35" s="26">
+      <c r="P35" s="25">
         <v>2</v>
       </c>
-      <c r="P35" s="26">
+      <c r="Q35" s="25">
         <v>83489</v>
       </c>
-      <c r="Q35" s="26">
+      <c r="R35" s="25">
         <v>3485.5945853850999</v>
       </c>
-      <c r="R35" s="26">
+      <c r="S35" s="25">
         <v>1.83333333333333E-3</v>
       </c>
-      <c r="S35" s="26">
+      <c r="T35" s="25">
         <v>110.71847060885899</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>77.6625467526042</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>12.9510336030558</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>718.27625</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>94</v>
       </c>
@@ -17933,60 +18209,61 @@
       <c r="D36" t="s">
         <v>79</v>
       </c>
-      <c r="E36" s="20"/>
-      <c r="F36" s="2">
+      <c r="E36" s="19"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="2">
         <v>400</v>
       </c>
-      <c r="G36" s="2">
+      <c r="H36" s="2">
         <v>30</v>
       </c>
-      <c r="H36" s="2">
+      <c r="I36" s="2">
         <v>1</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="J36" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="K36" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K36" s="9">
+      <c r="L36" s="8">
         <v>0.97361111111111109</v>
       </c>
-      <c r="L36" s="24">
+      <c r="M36" s="23">
         <v>0.97569444444444453</v>
       </c>
-      <c r="M36" s="26">
+      <c r="N36" s="25">
         <v>12000</v>
       </c>
-      <c r="N36" s="26">
+      <c r="O36" s="25">
         <v>2331</v>
       </c>
-      <c r="O36" s="26">
+      <c r="P36" s="25">
         <v>418</v>
       </c>
-      <c r="P36" s="26">
+      <c r="Q36" s="25">
         <v>97887</v>
       </c>
-      <c r="Q36" s="26">
+      <c r="R36" s="25">
         <v>3571.3437723829102</v>
       </c>
-      <c r="R36" s="26">
+      <c r="S36" s="25">
         <v>1.33333333333333E-3</v>
       </c>
-      <c r="S36" s="26">
+      <c r="T36" s="25">
         <v>103.728163060672</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>72.666296977512602</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>12.1394365831943</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>717.35858333333294</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>95</v>
       </c>
@@ -17999,154 +18276,159 @@
       <c r="D37" t="s">
         <v>96</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="G37" s="2">
         <v>400</v>
       </c>
-      <c r="G37" s="2">
+      <c r="H37" s="2">
         <v>30</v>
       </c>
-      <c r="H37" s="2">
+      <c r="I37" s="2">
         <v>1</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="J37" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="K37" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K37" s="9">
+      <c r="L37" s="8">
         <v>1.3194444444444444E-2</v>
       </c>
-      <c r="L37" s="24">
+      <c r="M37" s="23">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="M37" s="26">
+      <c r="N37" s="25">
         <v>12000</v>
       </c>
-      <c r="N37" s="26">
+      <c r="O37" s="25">
         <v>552</v>
       </c>
-      <c r="O37" s="26">
+      <c r="P37" s="25">
         <v>210</v>
       </c>
-      <c r="P37" s="26">
+      <c r="Q37" s="25">
         <v>2389</v>
       </c>
-      <c r="Q37" s="26">
+      <c r="R37" s="25">
         <v>315.86638852312001</v>
       </c>
-      <c r="R37" s="26">
+      <c r="S37" s="25">
         <v>0</v>
       </c>
-      <c r="S37" s="26">
+      <c r="T37" s="25">
         <v>603.31825037707301</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>449.54279788838602</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>73.058069381598699</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>763</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="2">
+      <c r="E38" s="19"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="2">
         <v>400</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>30</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>1</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="J38" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J38" s="2"/>
       <c r="K38" s="2"/>
-      <c r="L38" s="26"/>
-      <c r="M38" s="26">
+      <c r="L38" s="2"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25">
         <v>12000</v>
       </c>
-      <c r="N38" s="26">
+      <c r="O38" s="25">
         <v>509</v>
       </c>
-      <c r="O38" s="26">
+      <c r="P38" s="25">
         <v>208</v>
       </c>
-      <c r="P38" s="26">
+      <c r="Q38" s="25">
         <v>2898</v>
       </c>
-      <c r="Q38" s="26">
+      <c r="R38" s="25">
         <v>351.954233506408</v>
       </c>
-      <c r="R38" s="26">
+      <c r="S38" s="25">
         <v>0</v>
       </c>
-      <c r="S38" s="26">
+      <c r="T38" s="25">
         <v>683.99452804377495</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>389.42266586867299</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>82.827462380300901</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>583</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="2"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="26"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
-      <c r="I39" s="2" t="s">
+      <c r="I39" s="2"/>
+      <c r="J39" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="J39" s="2"/>
       <c r="K39" s="2"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="26">
+      <c r="L39" s="2"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25">
         <v>24000</v>
       </c>
-      <c r="N39" s="26">
+      <c r="O39" s="25">
         <v>530</v>
       </c>
-      <c r="O39" s="26">
+      <c r="P39" s="25">
         <v>208</v>
       </c>
-      <c r="P39" s="26">
+      <c r="Q39" s="25">
         <v>2898</v>
       </c>
-      <c r="Q39" s="26">
+      <c r="R39" s="25">
         <v>335.10648989869202</v>
       </c>
-      <c r="R39" s="26">
+      <c r="S39" s="25">
         <v>0</v>
       </c>
-      <c r="S39" s="26">
+      <c r="T39" s="25">
         <v>1063.7354844428601</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>699.11521584965794</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>128.811718819253</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>673</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>99</v>
       </c>
@@ -18159,148 +18441,151 @@
       <c r="D40" t="s">
         <v>96</v>
       </c>
-      <c r="E40" s="20"/>
-      <c r="F40" s="2">
+      <c r="E40" s="19"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="2">
         <v>400</v>
       </c>
-      <c r="G40" s="2">
+      <c r="H40" s="2">
         <v>30</v>
       </c>
-      <c r="H40" s="2">
+      <c r="I40" s="2">
         <v>1</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="J40" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="K40" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K40" s="9">
+      <c r="L40" s="8">
         <v>1.5277777777777777E-2</v>
       </c>
-      <c r="L40" s="24">
+      <c r="M40" s="23">
         <v>1.5972222222222224E-2</v>
       </c>
-      <c r="M40" s="26">
+      <c r="N40" s="25">
         <v>12000</v>
       </c>
-      <c r="N40" s="26">
+      <c r="O40" s="25">
         <v>222</v>
       </c>
-      <c r="O40" s="26">
+      <c r="P40" s="25">
         <v>208</v>
       </c>
-      <c r="P40" s="26">
+      <c r="Q40" s="25">
         <v>448</v>
       </c>
-      <c r="Q40" s="26">
+      <c r="R40" s="25">
         <v>38.820288516355099</v>
       </c>
-      <c r="R40" s="26">
+      <c r="S40" s="25">
         <v>0</v>
       </c>
-      <c r="S40" s="26">
+      <c r="T40" s="25">
         <v>1505.4572826496001</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <v>1086.2368027458899</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>244.048739179525</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>738.84958333333304</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="E41" s="20"/>
-      <c r="F41" s="2">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="E41" s="19"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="2">
         <v>400</v>
       </c>
-      <c r="G41" s="2">
+      <c r="H41" s="2">
         <v>30</v>
       </c>
-      <c r="H41" s="2">
+      <c r="I41" s="2">
         <v>1</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="J41" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J41" s="2"/>
       <c r="K41" s="2"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="26">
+      <c r="L41" s="2"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25">
         <v>12000</v>
       </c>
-      <c r="N41" s="26">
+      <c r="O41" s="25">
         <v>244</v>
       </c>
-      <c r="O41" s="26">
+      <c r="P41" s="25">
         <v>208</v>
       </c>
-      <c r="P41" s="26">
+      <c r="Q41" s="25">
         <v>2165</v>
       </c>
-      <c r="Q41" s="26">
+      <c r="R41" s="25">
         <v>168.28540689224599</v>
       </c>
-      <c r="R41" s="26">
+      <c r="S41" s="25">
         <v>0</v>
       </c>
-      <c r="S41" s="26">
+      <c r="T41" s="25">
         <v>1386.48180242634</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <v>756.67549014298095</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>224.76169844020799</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>558.85024999999996</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="E42" s="20"/>
-      <c r="F42" s="2"/>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="E42" s="19"/>
+      <c r="F42" s="26"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
-      <c r="I42" s="2" t="s">
+      <c r="I42" s="2"/>
+      <c r="J42" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="L42" s="26"/>
-      <c r="M42" s="26">
+      <c r="M42" s="25"/>
+      <c r="N42" s="25">
         <v>24000</v>
       </c>
-      <c r="N42" s="26">
+      <c r="O42" s="25">
         <v>233</v>
       </c>
-      <c r="O42" s="26">
+      <c r="P42" s="25">
         <v>208</v>
       </c>
-      <c r="P42" s="26">
+      <c r="Q42" s="25">
         <v>2165</v>
       </c>
-      <c r="Q42" s="26">
+      <c r="R42" s="25">
         <v>122.642227113896</v>
       </c>
-      <c r="R42" s="26">
+      <c r="S42" s="25">
         <v>0</v>
       </c>
-      <c r="S42" s="26">
+      <c r="T42" s="25">
         <v>1755.54092604783</v>
       </c>
-      <c r="T42">
+      <c r="U42">
         <v>1112.38533551861</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>284.58964230853599</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>648.84991666666599</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>100</v>
       </c>
@@ -18313,150 +18598,153 @@
       <c r="D43" t="s">
         <v>96</v>
       </c>
-      <c r="E43" s="20"/>
-      <c r="F43" s="2">
+      <c r="E43" s="19"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="2">
         <v>400</v>
       </c>
-      <c r="G43" s="2">
+      <c r="H43" s="2">
         <v>30</v>
       </c>
-      <c r="H43" s="2">
+      <c r="I43" s="2">
         <v>1</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="J43" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="J43" s="2" t="s">
+      <c r="K43" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K43" s="9">
+      <c r="L43" s="8">
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="L43" s="24">
+      <c r="M43" s="23">
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="M43" s="26">
+      <c r="N43" s="25">
         <v>12000</v>
       </c>
-      <c r="N43" s="26">
+      <c r="O43" s="25">
         <v>207</v>
       </c>
-      <c r="O43" s="26">
+      <c r="P43" s="25">
         <v>196</v>
       </c>
-      <c r="P43" s="26">
+      <c r="Q43" s="25">
         <v>1407</v>
       </c>
-      <c r="Q43" s="26">
+      <c r="R43" s="25">
         <v>43.742380075388198</v>
       </c>
-      <c r="R43" s="26">
+      <c r="S43" s="25">
         <v>0</v>
       </c>
-      <c r="S43" s="26">
+      <c r="T43" s="25">
         <v>1550.98875533152</v>
       </c>
-      <c r="T43">
+      <c r="U43">
         <v>1119.08862244733</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>251.429817758821</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>738.84916666666595</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="E44" s="20"/>
-      <c r="F44" s="2">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="E44" s="19"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="2">
         <v>400</v>
       </c>
-      <c r="G44" s="2">
+      <c r="H44" s="2">
         <v>30</v>
       </c>
-      <c r="H44" s="2">
+      <c r="I44" s="2">
         <v>1</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="J44" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J44" s="2"/>
       <c r="K44" s="2"/>
-      <c r="L44" s="26"/>
-      <c r="M44" s="26">
+      <c r="L44" s="2"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="25">
         <v>12000</v>
       </c>
-      <c r="N44" s="26">
+      <c r="O44" s="25">
         <v>206</v>
       </c>
-      <c r="O44" s="26">
+      <c r="P44" s="25">
         <v>195</v>
       </c>
-      <c r="P44" s="26">
+      <c r="Q44" s="25">
         <v>629</v>
       </c>
-      <c r="Q44" s="26">
+      <c r="R44" s="25">
         <v>36.785943281141101</v>
       </c>
-      <c r="R44" s="26">
+      <c r="S44" s="25">
         <v>0</v>
       </c>
-      <c r="S44" s="26">
+      <c r="T44" s="25">
         <v>1579.57088324338</v>
       </c>
-      <c r="T44">
+      <c r="U44">
         <v>862.05505154172602</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>256.06324865078301</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>558.85074999999995</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="E45" s="20"/>
-      <c r="F45" s="2"/>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="E45" s="19"/>
+      <c r="F45" s="26"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
-      <c r="I45" s="2" t="s">
+      <c r="I45" s="2"/>
+      <c r="J45" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="J45" s="2"/>
       <c r="K45" s="2"/>
-      <c r="L45" s="26"/>
-      <c r="M45" s="26">
+      <c r="L45" s="2"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="25">
         <v>24000</v>
       </c>
-      <c r="N45" s="26">
+      <c r="O45" s="25">
         <v>206</v>
       </c>
-      <c r="O45" s="26">
+      <c r="P45" s="25">
         <v>195</v>
       </c>
-      <c r="P45" s="26">
+      <c r="Q45" s="25">
         <v>1407</v>
       </c>
-      <c r="Q45" s="26">
+      <c r="R45" s="25">
         <v>40.417101409839603</v>
       </c>
-      <c r="R45" s="26">
+      <c r="S45" s="25">
         <v>0</v>
       </c>
-      <c r="S45" s="26">
+      <c r="T45" s="25">
         <v>1902.49702734839</v>
       </c>
-      <c r="T45">
+      <c r="U45">
         <v>1205.50304387138</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>308.41260404280598</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>648.84995833333301</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>101</v>
       </c>
@@ -18469,150 +18757,153 @@
       <c r="D46" t="s">
         <v>96</v>
       </c>
-      <c r="E46" s="20"/>
-      <c r="F46" s="2">
+      <c r="E46" s="19"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="2">
         <v>400</v>
       </c>
-      <c r="G46" s="2">
+      <c r="H46" s="2">
         <v>30</v>
       </c>
-      <c r="H46" s="2">
+      <c r="I46" s="2">
         <v>1</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="J46" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="J46" s="2" t="s">
+      <c r="K46" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K46" s="9">
+      <c r="L46" s="8">
         <v>1.7361111111111112E-2</v>
       </c>
-      <c r="L46" s="24">
+      <c r="M46" s="23">
         <v>1.8055555555555557E-2</v>
       </c>
-      <c r="M46" s="26">
+      <c r="N46" s="25">
         <v>12000</v>
       </c>
-      <c r="N46" s="26">
+      <c r="O46" s="25">
         <v>231</v>
       </c>
-      <c r="O46" s="26">
+      <c r="P46" s="25">
         <v>206</v>
       </c>
-      <c r="P46" s="26">
+      <c r="Q46" s="25">
         <v>1452</v>
       </c>
-      <c r="Q46" s="26">
+      <c r="R46" s="25">
         <v>61.914259556395102</v>
       </c>
-      <c r="R46" s="26">
+      <c r="S46" s="25">
         <v>8.4166666666666608E-3</v>
       </c>
-      <c r="S46" s="26">
+      <c r="T46" s="25">
         <v>1370.8019191226799</v>
       </c>
-      <c r="T46">
+      <c r="U46">
         <v>1045.6392925733901</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>172.56285519476799</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>781.10091666666597</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="E47" s="20"/>
-      <c r="F47" s="2">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="E47" s="19"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="2">
         <v>400</v>
       </c>
-      <c r="G47" s="2">
+      <c r="H47" s="2">
         <v>30</v>
       </c>
-      <c r="H47" s="2">
+      <c r="I47" s="2">
         <v>1</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="J47" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J47" s="2"/>
       <c r="K47" s="2"/>
-      <c r="L47" s="26"/>
-      <c r="M47" s="26">
+      <c r="L47" s="2"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25">
         <v>12000</v>
       </c>
-      <c r="N47" s="26">
+      <c r="O47" s="25">
         <v>233</v>
       </c>
-      <c r="O47" s="26">
+      <c r="P47" s="25">
         <v>208</v>
       </c>
-      <c r="P47" s="26">
+      <c r="Q47" s="25">
         <v>1230</v>
       </c>
-      <c r="Q47" s="26">
+      <c r="R47" s="25">
         <v>71.076043388939297</v>
       </c>
-      <c r="R47" s="26">
+      <c r="S47" s="25">
         <v>7.5833333333333299E-3</v>
       </c>
-      <c r="S47" s="26">
+      <c r="T47" s="25">
         <v>1377.56859143611</v>
       </c>
-      <c r="T47">
+      <c r="U47">
         <v>809.29856557082996</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>173.560413916312</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>601.58291666666605</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="E48" s="20"/>
-      <c r="F48" s="2"/>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="E48" s="19"/>
+      <c r="F48" s="26"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
-      <c r="I48" s="2" t="s">
+      <c r="I48" s="2"/>
+      <c r="J48" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="J48" s="2"/>
       <c r="K48" s="2"/>
-      <c r="L48" s="26"/>
-      <c r="M48" s="26">
+      <c r="L48" s="2"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="25">
         <v>24000</v>
       </c>
-      <c r="N48" s="26">
+      <c r="O48" s="25">
         <v>232</v>
       </c>
-      <c r="O48" s="26">
+      <c r="P48" s="25">
         <v>206</v>
       </c>
-      <c r="P48" s="26">
+      <c r="Q48" s="25">
         <v>1452</v>
       </c>
-      <c r="Q48" s="26">
+      <c r="R48" s="25">
         <v>66.660402421827001</v>
       </c>
-      <c r="R48" s="26">
+      <c r="S48" s="25">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="S48" s="26">
+      <c r="T48" s="25">
         <v>1748.3791068696701</v>
       </c>
-      <c r="T48">
+      <c r="U48">
         <v>1180.3982058625299</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>220.186493771399</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>691.34191666666595</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>102</v>
       </c>
@@ -18625,150 +18916,153 @@
       <c r="D49" t="s">
         <v>96</v>
       </c>
-      <c r="E49" s="20"/>
-      <c r="F49" s="2">
+      <c r="E49" s="19"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="2">
         <v>400</v>
       </c>
-      <c r="G49" s="2">
+      <c r="H49" s="2">
         <v>30</v>
       </c>
-      <c r="H49" s="2">
+      <c r="I49" s="2">
         <v>1</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="J49" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="J49" s="2" t="s">
+      <c r="K49" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K49" s="9">
+      <c r="L49" s="8">
         <v>2.2916666666666669E-2</v>
       </c>
-      <c r="L49" s="24">
+      <c r="M49" s="23">
         <v>2.2916666666666669E-2</v>
       </c>
-      <c r="M49" s="26">
+      <c r="N49" s="25">
         <v>12000</v>
       </c>
-      <c r="N49" s="26">
+      <c r="O49" s="25">
         <v>227</v>
       </c>
-      <c r="O49" s="26">
+      <c r="P49" s="25">
         <v>208</v>
       </c>
-      <c r="P49" s="26">
+      <c r="Q49" s="25">
         <v>1248</v>
       </c>
-      <c r="Q49" s="26">
+      <c r="R49" s="25">
         <v>45.522558653116</v>
       </c>
-      <c r="R49" s="26">
+      <c r="S49" s="25">
         <v>6.3333333333333297E-3</v>
       </c>
-      <c r="S49" s="26">
+      <c r="T49" s="25">
         <v>1356.0854333822999</v>
       </c>
-      <c r="T49">
+      <c r="U49">
         <v>1031.0466092566901</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>171.068941405808</v>
       </c>
-      <c r="V49">
+      <c r="W49">
         <v>778.55841666666595</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="E50" s="20"/>
-      <c r="F50" s="2">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="E50" s="19"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="2">
         <v>400</v>
       </c>
-      <c r="G50" s="2">
+      <c r="H50" s="2">
         <v>30</v>
       </c>
-      <c r="H50" s="2">
+      <c r="I50" s="2">
         <v>1</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="J50" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J50" s="2"/>
       <c r="K50" s="2"/>
-      <c r="L50" s="26"/>
-      <c r="M50" s="26">
+      <c r="L50" s="2"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="25">
         <v>12000</v>
       </c>
-      <c r="N50" s="26">
+      <c r="O50" s="25">
         <v>229</v>
       </c>
-      <c r="O50" s="26">
+      <c r="P50" s="25">
         <v>208</v>
       </c>
-      <c r="P50" s="26">
+      <c r="Q50" s="25">
         <v>1245</v>
       </c>
-      <c r="Q50" s="26">
+      <c r="R50" s="25">
         <v>51.391247644094598</v>
       </c>
-      <c r="R50" s="26">
+      <c r="S50" s="25">
         <v>9.6666666666666602E-3</v>
       </c>
-      <c r="S50" s="26">
+      <c r="T50" s="25">
         <v>1386.0013860013801</v>
       </c>
-      <c r="T50">
+      <c r="U50">
         <v>818.80197505197498</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>174.25628753753699</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>604.94399999999996</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="E51" s="20"/>
-      <c r="F51" s="2"/>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="E51" s="19"/>
+      <c r="F51" s="26"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
-      <c r="I51" s="2" t="s">
+      <c r="I51" s="2"/>
+      <c r="J51" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="J51" s="2"/>
       <c r="K51" s="2"/>
-      <c r="L51" s="26"/>
-      <c r="M51" s="26">
+      <c r="L51" s="2"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="25">
         <v>24000</v>
       </c>
-      <c r="N51" s="26">
+      <c r="O51" s="25">
         <v>228</v>
       </c>
-      <c r="O51" s="26">
+      <c r="P51" s="25">
         <v>208</v>
       </c>
-      <c r="P51" s="26">
+      <c r="Q51" s="25">
         <v>1248</v>
       </c>
-      <c r="Q51" s="26">
+      <c r="R51" s="25">
         <v>48.554369363957299</v>
       </c>
-      <c r="R51" s="26">
+      <c r="S51" s="25">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="S51" s="26">
+      <c r="T51" s="25">
         <v>1755.15577007459</v>
       </c>
-      <c r="T51">
+      <c r="U51">
         <v>1185.6749265256999</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <v>221.03992979376901</v>
       </c>
-      <c r="V51">
+      <c r="W51">
         <v>691.75120833333301</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>103</v>
       </c>
@@ -18781,150 +19075,153 @@
       <c r="D52" t="s">
         <v>96</v>
       </c>
-      <c r="E52" s="20"/>
-      <c r="F52" s="2">
+      <c r="E52" s="19"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="2">
         <v>400</v>
       </c>
-      <c r="G52" s="2">
+      <c r="H52" s="2">
         <v>30</v>
       </c>
-      <c r="H52" s="2">
+      <c r="I52" s="2">
         <v>1</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="J52" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="J52" s="2" t="s">
+      <c r="K52" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K52" s="9">
+      <c r="L52" s="8">
         <v>1.8055555555555557E-2</v>
       </c>
-      <c r="L52" s="24">
+      <c r="M52" s="23">
         <v>1.8749999999999999E-2</v>
       </c>
-      <c r="M52" s="26">
+      <c r="N52" s="25">
         <v>12000</v>
       </c>
-      <c r="N52" s="26">
+      <c r="O52" s="25">
         <v>221</v>
       </c>
-      <c r="O52" s="26">
+      <c r="P52" s="25">
         <v>208</v>
       </c>
-      <c r="P52" s="26">
+      <c r="Q52" s="25">
         <v>697</v>
       </c>
-      <c r="Q52" s="26">
+      <c r="R52" s="25">
         <v>39.050164531947999</v>
       </c>
-      <c r="R52" s="26">
+      <c r="S52" s="25">
         <v>0</v>
       </c>
-      <c r="S52" s="26">
+      <c r="T52" s="25">
         <v>1458.9665653495399</v>
       </c>
-      <c r="T52">
+      <c r="U52">
         <v>1018.4979340805399</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>170.97264437689901</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <v>714.84974999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="E53" s="20"/>
-      <c r="F53" s="2">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="E53" s="19"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="2">
         <v>400</v>
       </c>
-      <c r="G53" s="2">
+      <c r="H53" s="2">
         <v>30</v>
       </c>
-      <c r="H53" s="2">
+      <c r="I53" s="2">
         <v>1</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="J53" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J53" s="2"/>
       <c r="K53" s="2"/>
-      <c r="L53" s="26"/>
-      <c r="M53" s="26">
+      <c r="L53" s="2"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="25">
         <v>12000</v>
       </c>
-      <c r="N53" s="26">
+      <c r="O53" s="25">
         <v>221</v>
       </c>
-      <c r="O53" s="26">
+      <c r="P53" s="25">
         <v>208</v>
       </c>
-      <c r="P53" s="26">
+      <c r="Q53" s="25">
         <v>674</v>
       </c>
-      <c r="Q53" s="26">
+      <c r="R53" s="25">
         <v>38.922145191733598</v>
       </c>
-      <c r="R53" s="26">
+      <c r="S53" s="25">
         <v>0</v>
       </c>
-      <c r="S53" s="26">
+      <c r="T53" s="25">
         <v>1460.0316340187301</v>
       </c>
-      <c r="T53">
+      <c r="U53">
         <v>762.59598092073202</v>
       </c>
-      <c r="U53">
+      <c r="V53">
         <v>171.09745711157001</v>
       </c>
-      <c r="V53">
+      <c r="W53">
         <v>534.85024999999996</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="E54" s="20"/>
-      <c r="F54" s="2"/>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="E54" s="19"/>
+      <c r="F54" s="26"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
-      <c r="I54" s="2" t="s">
+      <c r="I54" s="2"/>
+      <c r="J54" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="J54" s="2"/>
       <c r="K54" s="2"/>
-      <c r="L54" s="26"/>
-      <c r="M54" s="26">
+      <c r="L54" s="2"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="25">
         <v>24000</v>
       </c>
-      <c r="N54" s="26">
+      <c r="O54" s="25">
         <v>221</v>
       </c>
-      <c r="O54" s="26">
+      <c r="P54" s="25">
         <v>208</v>
       </c>
-      <c r="P54" s="26">
+      <c r="Q54" s="25">
         <v>697</v>
       </c>
-      <c r="Q54" s="26">
+      <c r="R54" s="25">
         <v>38.986301987556203</v>
       </c>
-      <c r="R54" s="26">
+      <c r="S54" s="25">
         <v>0</v>
       </c>
-      <c r="S54" s="26">
+      <c r="T54" s="25">
         <v>1813.5106543750901</v>
       </c>
-      <c r="T54">
+      <c r="U54">
         <v>1106.61341053347</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <v>212.520779809581</v>
       </c>
-      <c r="V54">
+      <c r="W54">
         <v>624.85</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>104</v>
       </c>
@@ -18937,191 +19234,195 @@
       <c r="D55" t="s">
         <v>96</v>
       </c>
-      <c r="E55" s="20"/>
-      <c r="F55" s="2">
+      <c r="E55" s="19"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="2">
         <v>400</v>
       </c>
-      <c r="G55" s="2">
+      <c r="H55" s="2">
         <v>30</v>
       </c>
-      <c r="H55" s="2">
+      <c r="I55" s="2">
         <v>1</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="J55" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="J55" s="2" t="s">
+      <c r="K55" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K55" s="9">
+      <c r="L55" s="8">
         <v>2.361111111111111E-2</v>
       </c>
-      <c r="L55" s="9">
+      <c r="M55" s="8">
         <v>2.361111111111111E-2</v>
       </c>
-      <c r="M55">
+      <c r="N55">
         <v>12000</v>
       </c>
-      <c r="N55">
+      <c r="O55">
         <v>221</v>
       </c>
-      <c r="O55">
+      <c r="P55">
         <v>208</v>
       </c>
-      <c r="P55">
+      <c r="Q55">
         <v>653</v>
       </c>
-      <c r="Q55">
+      <c r="R55">
         <v>38.934036360572499</v>
       </c>
-      <c r="R55">
+      <c r="S55">
         <v>0</v>
       </c>
-      <c r="S55">
+      <c r="T55">
         <v>1498.31439630415</v>
       </c>
-      <c r="T55">
+      <c r="U55">
         <v>1045.96952451929</v>
       </c>
-      <c r="U55">
+      <c r="V55">
         <v>175.583718316893</v>
       </c>
-      <c r="V55">
+      <c r="W55">
         <v>714.85183333333305</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="2">
+      <c r="E56" s="19"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="2">
         <v>400</v>
       </c>
-      <c r="G56" s="2">
+      <c r="H56" s="2">
         <v>30</v>
       </c>
-      <c r="H56" s="2">
+      <c r="I56" s="2">
         <v>1</v>
       </c>
-      <c r="I56" s="2" t="s">
+      <c r="J56" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J56" s="2"/>
       <c r="K56" s="2"/>
-      <c r="M56">
+      <c r="L56" s="2"/>
+      <c r="N56">
         <v>12000</v>
       </c>
-      <c r="N56">
+      <c r="O56">
         <v>221</v>
       </c>
-      <c r="O56">
+      <c r="P56">
         <v>208</v>
       </c>
-      <c r="P56">
+      <c r="Q56">
         <v>657</v>
       </c>
-      <c r="Q56">
+      <c r="R56">
         <v>39.262261692651002</v>
       </c>
-      <c r="R56">
+      <c r="S56">
         <v>0</v>
       </c>
-      <c r="S56">
+      <c r="T56">
         <v>1496.81925907446</v>
       </c>
-      <c r="T56">
+      <c r="U56">
         <v>781.81069816483705</v>
       </c>
-      <c r="U56">
+      <c r="V56">
         <v>175.408506922789</v>
       </c>
-      <c r="V56">
+      <c r="W56">
         <v>534.85024999999996</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="2"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="26"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
-      <c r="I57" s="2" t="s">
+      <c r="I57" s="2"/>
+      <c r="J57" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="J57" s="2"/>
       <c r="K57" s="2"/>
-      <c r="M57">
+      <c r="L57" s="2"/>
+      <c r="N57">
         <v>24000</v>
       </c>
-      <c r="N57">
+      <c r="O57">
         <v>221</v>
       </c>
-      <c r="O57">
+      <c r="P57">
         <v>208</v>
       </c>
-      <c r="P57">
+      <c r="Q57">
         <v>657</v>
       </c>
-      <c r="Q57">
+      <c r="R57">
         <v>39.098524314095599</v>
       </c>
-      <c r="R57">
+      <c r="S57">
         <v>0</v>
       </c>
-      <c r="S57">
+      <c r="T57">
         <v>1841.76195226766</v>
       </c>
-      <c r="T57">
+      <c r="U57">
         <v>1123.8543695082799</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <v>215.831478781367</v>
       </c>
-      <c r="V57">
+      <c r="W57">
         <v>624.85104166666599</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="16" t="s">
+    <row r="58" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="D58" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="E58" s="22"/>
-      <c r="F58" s="12">
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="11">
         <v>400</v>
       </c>
-      <c r="G58" s="12">
+      <c r="H58" s="11">
         <v>30</v>
       </c>
-      <c r="H58" s="12">
+      <c r="I58" s="11">
         <v>1</v>
       </c>
-      <c r="I58" s="12" t="s">
+      <c r="J58" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="13"/>
-      <c r="O58" s="13"/>
-      <c r="P58" s="13"/>
-      <c r="Q58" s="13"/>
-      <c r="R58" s="13"/>
-      <c r="S58" s="13"/>
-      <c r="T58" s="13"/>
-      <c r="U58" s="13"/>
-      <c r="V58" s="13"/>
-      <c r="W58" s="15"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="12"/>
+      <c r="R58" s="12"/>
+      <c r="S58" s="12"/>
+      <c r="T58" s="12"/>
+      <c r="U58" s="12"/>
+      <c r="V58" s="12"/>
+      <c r="W58" s="12"/>
+      <c r="X58" s="14"/>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>107</v>
       </c>
@@ -19134,62 +19435,65 @@
       <c r="D59" t="s">
         <v>106</v>
       </c>
-      <c r="E59" s="20" t="s">
+      <c r="E59" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="G59" s="2">
         <v>400</v>
       </c>
-      <c r="G59" s="2">
+      <c r="H59" s="2">
         <v>30</v>
       </c>
-      <c r="H59" s="2">
+      <c r="I59" s="2">
         <v>1</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="J59" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J59" s="2" t="s">
+      <c r="K59" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K59" s="17">
+      <c r="L59" s="16">
         <v>0.99861111111111101</v>
       </c>
-      <c r="L59" s="17">
+      <c r="M59" s="16">
         <v>0</v>
       </c>
-      <c r="M59">
+      <c r="N59">
         <v>12000</v>
       </c>
-      <c r="N59">
+      <c r="O59">
         <v>2206</v>
       </c>
-      <c r="O59" s="23">
+      <c r="P59" s="22">
         <v>391</v>
       </c>
-      <c r="P59" s="23">
+      <c r="Q59" s="22">
         <v>78702</v>
       </c>
-      <c r="Q59" s="23">
+      <c r="R59" s="22">
         <v>4407.8195484161997</v>
       </c>
-      <c r="R59" s="23">
+      <c r="S59" s="22">
         <v>0.15383333333333299</v>
       </c>
-      <c r="S59" s="23">
+      <c r="T59" s="22">
         <v>103.480390466006</v>
       </c>
-      <c r="T59">
+      <c r="U59">
         <v>59.790107274671399</v>
       </c>
-      <c r="U59">
+      <c r="V59">
         <v>16.775141423200299</v>
       </c>
-      <c r="V59">
+      <c r="W59">
         <v>591.65866666666602</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>108</v>
       </c>
@@ -19202,63 +19506,64 @@
       <c r="D60" t="s">
         <v>106</v>
       </c>
-      <c r="E60" s="20"/>
-      <c r="F60" s="2">
+      <c r="E60" s="19"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="2">
         <v>400</v>
       </c>
-      <c r="G60" s="2">
+      <c r="H60" s="2">
         <v>30</v>
       </c>
-      <c r="H60" s="2">
+      <c r="I60" s="2">
         <v>1</v>
       </c>
-      <c r="I60" s="2" t="s">
+      <c r="J60" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J60" s="2" t="s">
+      <c r="K60" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K60" s="9">
+      <c r="L60" s="8">
         <v>0.97777777777777775</v>
       </c>
-      <c r="L60" s="9">
+      <c r="M60" s="8">
         <v>0.97916666666666663</v>
       </c>
-      <c r="M60">
+      <c r="N60">
         <v>12000</v>
       </c>
-      <c r="N60">
+      <c r="O60">
         <v>2557</v>
       </c>
-      <c r="O60" s="23">
+      <c r="P60" s="22">
         <v>418</v>
       </c>
-      <c r="P60" s="23">
+      <c r="Q60" s="22">
         <v>87811</v>
       </c>
-      <c r="Q60" s="23">
+      <c r="R60" s="22">
         <v>3460.9777855085699</v>
       </c>
-      <c r="R60" s="23">
+      <c r="S60" s="22">
         <v>0.131583333333333</v>
       </c>
-      <c r="S60" s="23">
+      <c r="T60" s="22">
         <v>117.268809428412</v>
       </c>
-      <c r="T60">
+      <c r="U60">
         <v>68.704510619545701</v>
       </c>
-      <c r="U60">
+      <c r="V60">
         <v>19.010373403433999</v>
       </c>
-      <c r="V60">
+      <c r="W60">
         <v>599.93291666666596</v>
       </c>
-      <c r="W60" s="7" t="s">
+      <c r="X60" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>110</v>
       </c>
@@ -19271,60 +19576,61 @@
       <c r="D61" t="s">
         <v>106</v>
       </c>
-      <c r="E61" s="20"/>
-      <c r="F61" s="2">
+      <c r="E61" s="19"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="2">
         <v>400</v>
       </c>
-      <c r="G61" s="2">
+      <c r="H61" s="2">
         <v>30</v>
       </c>
-      <c r="H61" s="2">
+      <c r="I61" s="2">
         <v>1</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="J61" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J61" s="2" t="s">
+      <c r="K61" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K61" s="17">
+      <c r="L61" s="16">
         <v>4.1666666666666666E-3</v>
       </c>
-      <c r="L61" s="17">
+      <c r="M61" s="16">
         <v>5.5555555555555558E-3</v>
       </c>
-      <c r="M61">
+      <c r="N61">
         <v>12000</v>
       </c>
-      <c r="N61">
+      <c r="O61">
         <v>2368</v>
       </c>
-      <c r="O61" s="23">
+      <c r="P61" s="22">
         <v>418</v>
       </c>
-      <c r="P61" s="23">
+      <c r="Q61" s="22">
         <v>99347</v>
       </c>
-      <c r="Q61" s="23">
+      <c r="R61" s="22">
         <v>4780.4769201310501</v>
       </c>
-      <c r="R61" s="23">
+      <c r="S61" s="22">
         <v>1.5E-3</v>
       </c>
-      <c r="S61" s="23">
+      <c r="T61" s="22">
         <v>104.472284373558</v>
       </c>
-      <c r="T61">
+      <c r="U61">
         <v>69.657346210811994</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <v>13.243188352646101</v>
       </c>
-      <c r="V61">
+      <c r="W61">
         <v>682.75641666666604</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>111</v>
       </c>
@@ -19337,60 +19643,61 @@
       <c r="D62" t="s">
         <v>106</v>
       </c>
-      <c r="E62" s="20"/>
-      <c r="F62" s="2">
+      <c r="E62" s="19"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="2">
         <v>400</v>
       </c>
-      <c r="G62" s="2">
+      <c r="H62" s="2">
         <v>30</v>
       </c>
-      <c r="H62" s="2">
+      <c r="I62" s="2">
         <v>1</v>
       </c>
-      <c r="I62" s="2" t="s">
+      <c r="J62" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J62" s="2" t="s">
+      <c r="K62" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K62" s="9">
+      <c r="L62" s="8">
         <v>0.98263888888888884</v>
       </c>
-      <c r="L62" s="9">
+      <c r="M62" s="8">
         <v>0.98402777777777783</v>
       </c>
-      <c r="M62">
+      <c r="N62">
         <v>12000</v>
       </c>
-      <c r="N62">
+      <c r="O62">
         <v>2439</v>
       </c>
-      <c r="O62" s="23">
+      <c r="P62" s="22">
         <v>423</v>
       </c>
-      <c r="P62" s="23">
+      <c r="Q62" s="22">
         <v>95372</v>
       </c>
-      <c r="Q62" s="23">
+      <c r="R62" s="22">
         <v>4271.6539533540999</v>
       </c>
-      <c r="R62" s="23">
+      <c r="S62" s="22">
         <v>9.16666666666666E-4</v>
       </c>
-      <c r="S62" s="23">
+      <c r="T62" s="22">
         <v>90.021830293846193</v>
       </c>
-      <c r="T62">
+      <c r="U62">
         <v>59.923506059594402</v>
       </c>
-      <c r="U62">
+      <c r="V62">
         <v>11.4180765007389</v>
       </c>
-      <c r="V62">
+      <c r="W62">
         <v>681.63099999999997</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>112</v>
       </c>
@@ -19403,60 +19710,61 @@
       <c r="D63" t="s">
         <v>106</v>
       </c>
-      <c r="E63" s="20"/>
-      <c r="F63" s="2">
+      <c r="E63" s="19"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="2">
         <v>400</v>
       </c>
-      <c r="G63" s="2">
+      <c r="H63" s="2">
         <v>30</v>
       </c>
-      <c r="H63" s="2">
+      <c r="I63" s="2">
         <v>1</v>
       </c>
-      <c r="I63" s="2" t="s">
+      <c r="J63" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J63" s="2" t="s">
+      <c r="K63" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K63" s="17">
+      <c r="L63" s="16">
         <v>8.3333333333333332E-3</v>
       </c>
-      <c r="L63" s="17">
+      <c r="M63" s="16">
         <v>9.7222222222222224E-3</v>
       </c>
-      <c r="M63">
+      <c r="N63">
         <v>12000</v>
       </c>
-      <c r="N63">
+      <c r="O63">
         <v>2276</v>
       </c>
-      <c r="O63" s="23">
+      <c r="P63" s="22">
         <v>418</v>
       </c>
-      <c r="P63" s="23">
+      <c r="Q63" s="22">
         <v>83991</v>
       </c>
-      <c r="Q63" s="23">
+      <c r="R63" s="22">
         <v>3942.3010243188301</v>
       </c>
-      <c r="R63" s="23">
+      <c r="S63" s="22">
         <v>1.7749999999999998E-2</v>
       </c>
-      <c r="S63" s="23">
+      <c r="T63" s="22">
         <v>104.35508557116999</v>
       </c>
-      <c r="T63">
+      <c r="U63">
         <v>63.359409309451898</v>
       </c>
-      <c r="U63">
+      <c r="V63">
         <v>12.2077106450883</v>
       </c>
-      <c r="V63">
+      <c r="W63">
         <v>621.72375</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>113</v>
       </c>
@@ -19469,104 +19777,106 @@
       <c r="D64" t="s">
         <v>106</v>
       </c>
-      <c r="E64" s="20"/>
-      <c r="F64" s="2">
+      <c r="E64" s="19"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="2">
         <v>400</v>
       </c>
-      <c r="G64" s="2">
+      <c r="H64" s="2">
         <v>30</v>
       </c>
-      <c r="H64" s="2">
+      <c r="I64" s="2">
         <v>1</v>
       </c>
-      <c r="I64" s="2" t="s">
+      <c r="J64" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J64" s="2" t="s">
+      <c r="K64" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K64" s="9">
+      <c r="L64" s="8">
         <v>0.9868055555555556</v>
       </c>
-      <c r="L64" s="9">
+      <c r="M64" s="8">
         <v>0.98888888888888893</v>
       </c>
-      <c r="M64">
+      <c r="N64">
         <v>12000</v>
       </c>
-      <c r="N64">
+      <c r="O64">
         <v>2472</v>
       </c>
-      <c r="O64" s="23">
+      <c r="P64" s="22">
         <v>2</v>
       </c>
-      <c r="P64" s="23">
+      <c r="Q64" s="22">
         <v>98704</v>
       </c>
-      <c r="Q64" s="23">
+      <c r="R64" s="22">
         <v>5342.88095308825</v>
       </c>
-      <c r="R64" s="23">
+      <c r="S64" s="22">
         <v>1.9166666666666601E-3</v>
       </c>
-      <c r="S64" s="23">
+      <c r="T64" s="22">
         <v>96.084554407878898</v>
       </c>
-      <c r="T64">
+      <c r="U64">
         <v>58.799133862799202</v>
       </c>
-      <c r="U64">
+      <c r="V64">
         <v>11.247710485227</v>
       </c>
-      <c r="V64">
+      <c r="W64">
         <v>626.63883333333297</v>
       </c>
-      <c r="W64" s="7" t="s">
+      <c r="X64" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="16" t="s">
+    <row r="65" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="B65" s="13" t="s">
+      <c r="B65" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C65" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D65" s="13" t="s">
+      <c r="D65" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E65" s="22"/>
-      <c r="F65" s="12">
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="11">
         <v>400</v>
       </c>
-      <c r="G65" s="12">
+      <c r="H65" s="11">
         <v>30</v>
       </c>
-      <c r="H65" s="12">
+      <c r="I65" s="11">
         <v>1</v>
       </c>
-      <c r="I65" s="12" t="s">
+      <c r="J65" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="J65" s="12"/>
-      <c r="K65" s="12"/>
-      <c r="L65" s="12"/>
-      <c r="M65" s="12"/>
-      <c r="N65" s="13"/>
-      <c r="O65" s="13"/>
-      <c r="P65" s="13"/>
-      <c r="Q65" s="13"/>
-      <c r="R65" s="13"/>
-      <c r="S65" s="13"/>
-      <c r="T65" s="13"/>
-      <c r="U65" s="13"/>
-      <c r="V65" s="13"/>
-      <c r="W65" s="15"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="12"/>
+      <c r="R65" s="12"/>
+      <c r="S65" s="12"/>
+      <c r="T65" s="12"/>
+      <c r="U65" s="12"/>
+      <c r="V65" s="12"/>
+      <c r="W65" s="12"/>
+      <c r="X65" s="14"/>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>117</v>
       </c>
@@ -19579,62 +19889,65 @@
       <c r="D66" t="s">
         <v>116</v>
       </c>
-      <c r="E66" s="20" t="s">
+      <c r="E66" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F66" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="G66" s="2">
         <v>400</v>
       </c>
-      <c r="G66" s="2">
+      <c r="H66" s="2">
         <v>30</v>
       </c>
-      <c r="H66" s="2">
+      <c r="I66" s="2">
         <v>1</v>
       </c>
-      <c r="I66" s="2" t="s">
+      <c r="J66" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J66" s="2" t="s">
+      <c r="K66" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K66" s="17">
+      <c r="L66" s="16">
         <v>2.0833333333333333E-3</v>
       </c>
-      <c r="L66" s="17">
+      <c r="M66" s="16">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="M66">
+      <c r="N66">
         <v>12000</v>
       </c>
-      <c r="N66">
+      <c r="O66">
         <v>2170</v>
       </c>
-      <c r="O66">
+      <c r="P66">
         <v>392</v>
       </c>
-      <c r="P66">
+      <c r="Q66">
         <v>83245</v>
       </c>
-      <c r="Q66">
+      <c r="R66">
         <v>4101.9440088484798</v>
       </c>
-      <c r="R66">
+      <c r="S66">
         <v>0</v>
       </c>
-      <c r="S66">
+      <c r="T66">
         <v>122.567795311781</v>
       </c>
-      <c r="T66">
+      <c r="U66">
         <v>77.666128836627294</v>
       </c>
-      <c r="U66">
+      <c r="V66">
         <v>19.869388693120801</v>
       </c>
-      <c r="V66">
+      <c r="W66">
         <v>648.86633333333305</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="30" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:24" ht="30" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>118</v>
       </c>
@@ -19647,63 +19960,64 @@
       <c r="D67" t="s">
         <v>116</v>
       </c>
-      <c r="E67" s="20"/>
-      <c r="F67" s="2">
+      <c r="E67" s="19"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="2">
         <v>400</v>
       </c>
-      <c r="G67" s="2">
+      <c r="H67" s="2">
         <v>30</v>
       </c>
-      <c r="H67" s="2">
+      <c r="I67" s="2">
         <v>1</v>
       </c>
-      <c r="I67" s="2" t="s">
+      <c r="J67" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J67" s="2" t="s">
+      <c r="K67" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K67" s="9">
+      <c r="L67" s="8">
         <v>0.98125000000000007</v>
       </c>
-      <c r="L67" s="9">
+      <c r="M67" s="8">
         <v>0.9819444444444444</v>
       </c>
-      <c r="M67">
+      <c r="N67">
         <v>12000</v>
       </c>
-      <c r="N67">
+      <c r="O67">
         <v>2289</v>
       </c>
-      <c r="O67">
+      <c r="P67">
         <v>398</v>
       </c>
-      <c r="P67">
+      <c r="Q67">
         <v>48514</v>
       </c>
-      <c r="Q67">
+      <c r="R67">
         <v>2778.9061607568101</v>
       </c>
-      <c r="R67">
+      <c r="S67">
         <v>0</v>
       </c>
-      <c r="S67">
+      <c r="T67">
         <v>122.361578464362</v>
       </c>
-      <c r="T67">
+      <c r="U67">
         <v>77.5354876459416</v>
       </c>
-      <c r="U67">
+      <c r="V67">
         <v>19.8359590088712</v>
       </c>
-      <c r="V67">
+      <c r="W67">
         <v>648.86658333333298</v>
       </c>
-      <c r="W67" s="7" t="s">
+      <c r="X67" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>120</v>
       </c>
@@ -19716,60 +20030,61 @@
       <c r="D68" t="s">
         <v>116</v>
       </c>
-      <c r="E68" s="20"/>
-      <c r="F68" s="2">
+      <c r="E68" s="19"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="2">
         <v>400</v>
       </c>
-      <c r="G68" s="2">
+      <c r="H68" s="2">
         <v>30</v>
       </c>
-      <c r="H68" s="2">
+      <c r="I68" s="2">
         <v>1</v>
       </c>
-      <c r="I68" s="2" t="s">
+      <c r="J68" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J68" s="2" t="s">
+      <c r="K68" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K68" s="17">
+      <c r="L68" s="16">
         <v>6.2499999999999995E-3</v>
       </c>
-      <c r="L68" s="17">
+      <c r="M68" s="16">
         <v>7.6388888888888886E-3</v>
       </c>
-      <c r="M68">
+      <c r="N68">
         <v>12000</v>
       </c>
-      <c r="N68">
+      <c r="O68">
         <v>2415</v>
       </c>
-      <c r="O68">
+      <c r="P68">
         <v>1</v>
       </c>
-      <c r="P68">
+      <c r="Q68">
         <v>88305</v>
       </c>
-      <c r="Q68">
+      <c r="R68">
         <v>4915.9308730052699</v>
       </c>
-      <c r="R68">
+      <c r="S68">
         <v>1.08333333333333E-3</v>
       </c>
-      <c r="S68">
+      <c r="T68">
         <v>113.071008593396</v>
       </c>
-      <c r="T68">
+      <c r="U68">
         <v>75.298372013040805</v>
       </c>
-      <c r="U68">
+      <c r="V68">
         <v>14.339166943455</v>
       </c>
-      <c r="V68">
+      <c r="W68">
         <v>681.921333333333</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="45" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:24" ht="45" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>121</v>
       </c>
@@ -19782,63 +20097,64 @@
       <c r="D69" t="s">
         <v>116</v>
       </c>
-      <c r="E69" s="20"/>
-      <c r="F69" s="2">
+      <c r="E69" s="19"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="2">
         <v>400</v>
       </c>
-      <c r="G69" s="2">
+      <c r="H69" s="2">
         <v>30</v>
       </c>
-      <c r="H69" s="2">
+      <c r="I69" s="2">
         <v>1</v>
       </c>
-      <c r="I69" s="2" t="s">
+      <c r="J69" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J69" s="2" t="s">
+      <c r="K69" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K69" s="9">
+      <c r="L69" s="8">
         <v>0.98888888888888893</v>
       </c>
-      <c r="L69" s="9">
+      <c r="M69" s="8">
         <v>0.9902777777777777</v>
       </c>
-      <c r="M69">
+      <c r="N69">
         <v>12000</v>
       </c>
-      <c r="N69">
+      <c r="O69">
         <v>2419</v>
       </c>
-      <c r="O69">
+      <c r="P69">
         <v>424</v>
       </c>
-      <c r="P69">
+      <c r="Q69">
         <v>90758</v>
       </c>
-      <c r="Q69">
+      <c r="R69">
         <v>5100.5646376205696</v>
       </c>
-      <c r="R69">
+      <c r="S69">
         <v>3.9166666666666603E-3</v>
       </c>
-      <c r="S69">
+      <c r="T69">
         <v>92.304142148378901</v>
       </c>
-      <c r="T69">
+      <c r="U69">
         <v>61.963346962616797</v>
       </c>
-      <c r="U69">
+      <c r="V69">
         <v>11.672402623937501</v>
       </c>
-      <c r="V69">
+      <c r="W69">
         <v>687.40650000000005</v>
       </c>
-      <c r="W69" s="7" t="s">
+      <c r="X69" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>123</v>
       </c>
@@ -19851,60 +20167,61 @@
       <c r="D70" t="s">
         <v>116</v>
       </c>
-      <c r="E70" s="20"/>
-      <c r="F70" s="2">
+      <c r="E70" s="19"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="2">
         <v>400</v>
       </c>
-      <c r="G70" s="2">
+      <c r="H70" s="2">
         <v>30</v>
       </c>
-      <c r="H70" s="2">
+      <c r="I70" s="2">
         <v>1</v>
       </c>
-      <c r="I70" s="2" t="s">
+      <c r="J70" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J70" s="2" t="s">
+      <c r="K70" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K70" s="17">
+      <c r="L70" s="16">
         <v>9.7222222222222224E-3</v>
       </c>
-      <c r="L70" s="17">
+      <c r="M70" s="16">
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="M70">
+      <c r="N70">
         <v>12000</v>
       </c>
-      <c r="N70">
+      <c r="O70">
         <v>2329</v>
       </c>
-      <c r="O70">
+      <c r="P70">
         <v>418</v>
       </c>
-      <c r="P70">
+      <c r="Q70">
         <v>96071</v>
       </c>
-      <c r="Q70">
+      <c r="R70">
         <v>4388.6304682823602</v>
       </c>
-      <c r="R70" s="10">
+      <c r="S70" s="9">
         <v>6.6666666666666599E-4</v>
       </c>
-      <c r="S70">
+      <c r="T70">
         <v>100.055030266646</v>
       </c>
-      <c r="T70">
+      <c r="U70">
         <v>61.182926325624898</v>
       </c>
-      <c r="U70">
+      <c r="V70">
         <v>11.717382060133</v>
       </c>
-      <c r="V70">
+      <c r="W70">
         <v>626.168583333333</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="30" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:24" ht="30" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>124</v>
       </c>
@@ -19917,72 +20234,81 @@
       <c r="D71" t="s">
         <v>116</v>
       </c>
-      <c r="E71" s="20"/>
-      <c r="F71" s="2">
+      <c r="E71" s="19"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="2">
         <v>400</v>
       </c>
-      <c r="G71" s="2">
+      <c r="H71" s="2">
         <v>30</v>
       </c>
-      <c r="H71" s="2">
+      <c r="I71" s="2">
         <v>1</v>
       </c>
-      <c r="I71" s="2" t="s">
+      <c r="J71" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J71" s="2" t="s">
+      <c r="K71" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K71" s="9">
+      <c r="L71" s="8">
         <v>0.99097222222222225</v>
       </c>
-      <c r="L71" s="9">
+      <c r="M71" s="8">
         <v>0.99305555555555547</v>
       </c>
-      <c r="M71">
+      <c r="N71">
         <v>12000</v>
       </c>
-      <c r="N71">
+      <c r="O71">
         <v>2360</v>
       </c>
-      <c r="O71">
+      <c r="P71">
         <v>1</v>
       </c>
-      <c r="P71">
+      <c r="Q71">
         <v>89173</v>
       </c>
-      <c r="Q71">
+      <c r="R71">
         <v>3835.0678255104299</v>
       </c>
-      <c r="R71">
+      <c r="S71">
         <v>2.4166666666666599E-3</v>
       </c>
-      <c r="S71">
+      <c r="T71">
         <v>113.84011156330899</v>
       </c>
-      <c r="T71">
+      <c r="U71">
         <v>69.993862565339398</v>
       </c>
-      <c r="U71">
+      <c r="V71">
         <v>13.3083981984802</v>
       </c>
-      <c r="V71">
+      <c r="W71">
         <v>629.59983333333298</v>
       </c>
-      <c r="W71" s="19" t="s">
+      <c r="X71" s="18" t="s">
         <v>125</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W71" xr:uid="{8C3BB8B2-1C50-4BDB-8ED9-D4EF7D92F16C}"/>
-  <mergeCells count="8">
+  <autoFilter ref="A1:X71" xr:uid="{8C3BB8B2-1C50-4BDB-8ED9-D4EF7D92F16C}"/>
+  <mergeCells count="16">
+    <mergeCell ref="F59:F64"/>
+    <mergeCell ref="F66:F71"/>
+    <mergeCell ref="F2:F8"/>
+    <mergeCell ref="E37:E57"/>
+    <mergeCell ref="F37:F57"/>
+    <mergeCell ref="F23:F29"/>
+    <mergeCell ref="F9:F15"/>
+    <mergeCell ref="F16:F22"/>
+    <mergeCell ref="F30:F36"/>
     <mergeCell ref="E2:E8"/>
     <mergeCell ref="E9:E15"/>
     <mergeCell ref="E16:E22"/>
     <mergeCell ref="E59:E64"/>
     <mergeCell ref="E66:E71"/>
     <mergeCell ref="E23:E29"/>
-    <mergeCell ref="E37:E56"/>
     <mergeCell ref="E30:E36"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -20006,9 +20332,17 @@
       <formula1>"Performance(File Size),Performance (Simple),Performance (Complex),Scalability,Fault Tolerance"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F37:F57" r:id="rId1" display="Link" xr:uid="{930439AF-ADC9-4DD6-ADF3-688D85638D7B}"/>
+    <hyperlink ref="F23:F29" r:id="rId2" display="Link" xr:uid="{6DC62AA1-582F-471B-8FBE-77F36E136F0F}"/>
+    <hyperlink ref="F2:F8" r:id="rId3" display="Link" xr:uid="{A7FC7A20-0C15-4F43-A917-8EB3F443F49F}"/>
+    <hyperlink ref="F9:F15" r:id="rId4" display="Link" xr:uid="{A22BD6DB-D981-46D7-82DA-0B43494510BB}"/>
+    <hyperlink ref="F16:F22" r:id="rId5" display="Link" xr:uid="{D7C4338F-64A0-411E-B6E0-8D02C585A1DC}"/>
+    <hyperlink ref="F30:F36" r:id="rId6" display="Link" xr:uid="{A66C68A5-0A4E-4C15-9673-D2C47A3124F1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId7"/>
+  <legacyDrawing r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -21082,13 +21416,13 @@
       <c r="P9" t="s">
         <v>147</v>
       </c>
-      <c r="Q9" s="18" t="s">
+      <c r="Q9" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="R9" s="18" t="s">
+      <c r="R9" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="S9" s="18" t="s">
+      <c r="S9" s="17" t="s">
         <v>148</v>
       </c>
     </row>
@@ -21096,7 +21430,7 @@
       <c r="P10" t="s">
         <v>149</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="Q10" s="10">
         <v>30</v>
       </c>
       <c r="R10">
